--- a/wmcloud/wiki_list.xlsx
+++ b/wmcloud/wiki_list.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physikerwelt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physikerwelt/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{9B6CBA80-0D63-1A47-BC5E-5354A2329F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DEDBBB-40FC-564A-A61A-2382702A06FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25180" yWindow="8200" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{D48CBC8F-0FA4-9348-871C-669F6E39C391}"/>
+    <workbookView xWindow="25180" yWindow="8200" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{D48CBC8F-0FA4-9348-871C-669F6E39C391}"/>
   </bookViews>
   <sheets>
     <sheet name="wiki_list" sheetId="1" r:id="rId1"/>
     <sheet name="group" sheetId="3" r:id="rId2"/>
-    <sheet name="regexp" sheetId="2" r:id="rId3"/>
+    <sheet name="sites" sheetId="4" r:id="rId3"/>
+    <sheet name="regexp" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="1004">
   <si>
     <t>dump</t>
   </si>
@@ -3044,13 +3045,16 @@
   </si>
   <si>
     <t>readerfeedback-labs</t>
+  </si>
+  <si>
+    <t>site</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3181,6 +3185,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3527,8 +3538,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -18913,15 +18925,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E37A674-B9FD-DC4C-BE65-38BAE94E61D2}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -18929,7 +18941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -18945,8 +18957,12 @@
         <f>"""grp"&amp;A2&amp;""" """&amp;C2&amp;""""</f>
         <v>"grp1" "ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca,cbk-zam,cdo,ce,ceb,ch"</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="str">
+        <f>"dict """&amp;B2&amp;""" dict " &amp;D2</f>
+        <v>dict "wiki" dict "grp1" "ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca,cbk-zam,cdo,ce,ceb,ch"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -18962,8 +18978,13 @@
         <f t="shared" ref="D3:D19" si="0">"""grp"&amp;A3&amp;""" """&amp;C3&amp;""""</f>
         <v>"grp2" "ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan,gd,gl,glk,gn,gom,gor,got"</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="str">
+        <f>IF(B2=B3,E2&amp;CHAR(10) &amp; D3,"dict """&amp;B3&amp;""" dict " &amp;D3)</f>
+        <v>dict "wiki" dict "grp1" "ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca,cbk-zam,cdo,ce,ceb,ch"
+"grp2" "ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan,gd,gl,glk,gn,gom,gor,got"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -18979,8 +19000,14 @@
         <f t="shared" si="0"/>
         <v>"grp3" "gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km,kn,knc,ko,krc,ks,ksh,ku,kv,kw"</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E19" si="1">IF(B3=B4,E3&amp;CHAR(10) &amp; D4,"dict """&amp;B4&amp;""" dict " &amp;D4)</f>
+        <v>dict "wiki" dict "grp1" "ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca,cbk-zam,cdo,ce,ceb,ch"
+"grp2" "ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan,gd,gl,glk,gn,gom,gor,got"
+"grp3" "gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km,kn,knc,ko,krc,ks,ksh,ku,kv,kw"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -18996,8 +19023,15 @@
         <f t="shared" si="0"/>
         <v>"grp4" "ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt,mwl,my,myv,mzn,nah,nap,nds,nds-nl,ne,new,nia"</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>dict "wiki" dict "grp1" "ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca,cbk-zam,cdo,ce,ceb,ch"
+"grp2" "ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan,gd,gl,glk,gn,gom,gor,got"
+"grp3" "gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km,kn,knc,ko,krc,ks,ksh,ku,kv,kw"
+"grp4" "ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt,mwl,my,myv,mzn,nah,nap,nds,nds-nl,ne,new,nia"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -19013,8 +19047,16 @@
         <f t="shared" si="0"/>
         <v>"grp5" "nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk,ru,rue,rw,sa,sah,sat,sc,scn,sco,sd,se,sh,shi"</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>dict "wiki" dict "grp1" "ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca,cbk-zam,cdo,ce,ceb,ch"
+"grp2" "ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan,gd,gl,glk,gn,gom,gor,got"
+"grp3" "gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km,kn,knc,ko,krc,ks,ksh,ku,kv,kw"
+"grp4" "ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt,mwl,my,myv,mzn,nah,nap,nds,nds-nl,ne,new,nia"
+"grp5" "nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk,ru,rue,rw,sa,sah,sat,sc,scn,sco,sd,se,sh,shi"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -19030,8 +19072,17 @@
         <f t="shared" si="0"/>
         <v>"grp6" "shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly,tn,tpi,tr,ts,tt,tum,tw,ty,tyv,udm,ug,uk,ur,usability,uz"</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>dict "wiki" dict "grp1" "ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca,cbk-zam,cdo,ce,ceb,ch"
+"grp2" "ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan,gd,gl,glk,gn,gom,gor,got"
+"grp3" "gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km,kn,knc,ko,krc,ks,ksh,ku,kv,kw"
+"grp4" "ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt,mwl,my,myv,mzn,nah,nap,nds,nds-nl,ne,new,nia"
+"grp5" "nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk,ru,rue,rw,sa,sah,sat,sc,scn,sco,sd,se,sh,shi"
+"grp6" "shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly,tn,tpi,tr,ts,tt,tum,tw,ty,tyv,udm,ug,uk,ur,usability,uz"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -19047,8 +19098,18 @@
         <f t="shared" si="0"/>
         <v>"grp7" "vec,vep,vi,vls,vo,wa,war,wikidata,wikimania2007,wo,wuu,xal,xh,xmf,yi,yo,za,zea,zgh,zh,zh-classical,zh-min-nan,zh-yue,zu"</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>dict "wiki" dict "grp1" "ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca,cbk-zam,cdo,ce,ceb,ch"
+"grp2" "ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan,gd,gl,glk,gn,gom,gor,got"
+"grp3" "gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km,kn,knc,ko,krc,ks,ksh,ku,kv,kw"
+"grp4" "ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt,mwl,my,myv,mzn,nah,nap,nds,nds-nl,ne,new,nia"
+"grp5" "nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk,ru,rue,rw,sa,sah,sat,sc,scn,sco,sd,se,sh,shi"
+"grp6" "shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly,tn,tpi,tr,ts,tt,tum,tw,ty,tyv,udm,ug,uk,ur,usability,uz"
+"grp7" "vec,vep,vi,vls,vo,wa,war,wikidata,wikimania2007,wo,wuu,xal,xh,xmf,yi,yo,za,zea,zgh,zh,zh-classical,zh-min-nan,zh-yue,zu"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -19064,8 +19125,12 @@
         <f t="shared" si="0"/>
         <v>"grp8" "af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko,ku,la,lt,lv,mk,ml,ms,ne,nl,no,oc,pa,pl,pt,ro"</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>dict "wikibooks" dict "grp8" "af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko,ku,la,lt,lv,mk,ml,ms,ne,nl,no,oc,pa,pl,pt,ro"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -19081,8 +19146,13 @@
         <f t="shared" si="0"/>
         <v>"grp9" "ru,shn,si,simple,sk,sl,sq,sr,sv,ta,te,tg,th,tl,tr,tt,uk,ur,vi,zh,zh-min-nan"</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>dict "wikibooks" dict "grp8" "af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko,ku,la,lt,lv,mk,ml,ms,ne,nl,no,oc,pa,pl,pt,ro"
+"grp9" "ru,shn,si,simple,sk,sl,sq,sr,sv,ta,te,tg,th,tl,tr,tt,uk,ur,vi,zh,zh-min-nan"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -19098,8 +19168,12 @@
         <f t="shared" si="0"/>
         <v>"grp10" "ae,az,br,de-labs,en-labs,flaggedrevs-labs,ge,id,liquidthreads-labs,pl,readerfeedback-labs,ru,ua,uk"</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>dict "wikimedia" dict "grp10" "ae,az,br,de-labs,en-labs,flaggedrevs-labs,ge,id,liquidthreads-labs,pl,readerfeedback-labs,ru,ua,uk"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -19115,8 +19189,12 @@
         <f t="shared" si="0"/>
         <v>"grp11" "ar,cs,de,el,en,es,fa,fi,fr,he,hu,it,ja,ko,pl,pt,ro,ru,shn,sr,ta,tr,uk,zh"</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>dict "wikinews" dict "grp11" "ar,cs,de,el,en,es,fa,fi,fr,he,hu,it,ja,ko,pl,pt,ro,ru,shn,sr,ta,tr,uk,zh"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -19132,8 +19210,12 @@
         <f t="shared" si="0"/>
         <v>"grp12" "ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka,ko,no,pl,pt,ru,simple,sl,sr,su,ta,th,tl,tr,uk,uz,vi,zh"</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>dict "wikiquote" dict "grp12" "ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka,ko,no,pl,pt,ru,simple,sl,sr,su,ta,th,tl,tr,uk,uz,vi,zh"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -19149,8 +19231,12 @@
         <f t="shared" si="0"/>
         <v>"grp13" "ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn,ko,la,lij,mk,ml,mr,ms,nap,nl,no,pa,pl,pt,ro,ru"</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>dict "wikisource" dict "grp13" "ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn,ko,la,lij,mk,ml,mr,ms,nap,nl,no,pa,pl,pt,ro,ru"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -19166,8 +19252,13 @@
         <f t="shared" si="0"/>
         <v>"grp14" "sa,sl,sr,su,sv,ta,tcy,te,th,tr,uk,vec,vi,zh,zh-min-nan"</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>dict "wikisource" dict "grp13" "ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn,ko,la,lij,mk,ml,mr,ms,nap,nl,no,pa,pl,pt,ro,ru"
+"grp14" "sa,sl,sr,su,sv,ta,tcy,te,th,tr,uk,vec,vi,zh,zh-min-nan"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -19183,8 +19274,12 @@
         <f t="shared" si="0"/>
         <v>"grp15" "ar,beta,cs,de,el,en,es,fr,hi,it,ja,ko,pt,ru,sl,sv,zh"</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>dict "wikiversity" dict "grp15" "ar,beta,cs,de,el,en,es,fr,hi,it,ja,ko,pt,ru,sl,sv,zh"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -19200,8 +19295,12 @@
         <f t="shared" si="0"/>
         <v>"grp16" "bn,cs,de,en,eo,es,fa,fr,he,hi,id,it,ja,nl,pt,ru,shn,tr,uk,vi,zh"</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>dict "wikivoyage" dict "grp16" "bn,cs,de,en,eo,es,fa,fr,he,hi,id,it,ja,nl,pt,ru,shn,tr,uk,vi,zh"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -19217,8 +19316,12 @@
         <f t="shared" si="0"/>
         <v>"grp17" "af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka,kaa,kk,km,kn,ko,ku,lmo,lt,mg,mk,ml,mn,mnw,mr,ms"</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>dict "wiktionary" dict "grp17" "af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka,kaa,kk,km,kn,ko,ku,lmo,lt,mg,mk,ml,mn,mnw,mr,ms"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -19233,6 +19336,11 @@
       <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v>"grp18" "nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si,simple,skr,sq,sr,sv,ta,te,th,tl,tr,uk,uz,vec,vi,wa,yue,zh"</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>dict "wiktionary" dict "grp17" "af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka,kaa,kk,km,kn,ko,ku,lmo,lt,mg,mk,ml,mn,mnw,mr,ms"
+"grp18" "nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si,simple,skr,sq,sr,sv,ta,te,th,tl,tr,uk,uz,vec,vi,wa,yue,zh"</v>
       </c>
     </row>
   </sheetData>
@@ -19241,6 +19349,116 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BCFE7A-F171-284A-A828-F1BCFE8B74A0}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="str">
+        <f>LOOKUP(sites!A2,group!B:B,group!E:E)</f>
+        <v>dict "wiki" dict "grp1" "ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca,cbk-zam,cdo,ce,ceb,ch"
+"grp2" "ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan,gd,gl,glk,gn,gom,gor,got"
+"grp3" "gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km,kn,knc,ko,krc,ks,ksh,ku,kv,kw"
+"grp4" "ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt,mwl,my,myv,mzn,nah,nap,nds,nds-nl,ne,new,nia"
+"grp5" "nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk,ru,rue,rw,sa,sah,sat,sc,scn,sco,sd,se,sh,shi"
+"grp6" "shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly,tn,tpi,tr,ts,tt,tum,tw,ty,tyv,udm,ug,uk,ur,usability,uz"
+"grp7" "vec,vep,vi,vls,vo,wa,war,wikidata,wikimania2007,wo,wuu,xal,xh,xmf,yi,yo,za,zea,zgh,zh,zh-classical,zh-min-nan,zh-yue,zu"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="str">
+        <f>LOOKUP(sites!A3,group!B:B,group!E:E)</f>
+        <v>dict "wikibooks" dict "grp8" "af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko,ku,la,lt,lv,mk,ml,ms,ne,nl,no,oc,pa,pl,pt,ro"
+"grp9" "ru,shn,si,simple,sk,sl,sq,sr,sv,ta,te,tg,th,tl,tr,tt,uk,ur,vi,zh,zh-min-nan"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="str">
+        <f>LOOKUP(sites!A4,group!B:B,group!E:E)</f>
+        <v>dict "wikimedia" dict "grp10" "ae,az,br,de-labs,en-labs,flaggedrevs-labs,ge,id,liquidthreads-labs,pl,readerfeedback-labs,ru,ua,uk"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="str">
+        <f>LOOKUP(sites!A5,group!B:B,group!E:E)</f>
+        <v>dict "wikinews" dict "grp11" "ar,cs,de,el,en,es,fa,fi,fr,he,hu,it,ja,ko,pl,pt,ro,ru,shn,sr,ta,tr,uk,zh"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="str">
+        <f>LOOKUP(sites!A6,group!B:B,group!E:E)</f>
+        <v>dict "wikiquote" dict "grp12" "ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka,ko,no,pl,pt,ru,simple,sl,sr,su,ta,th,tl,tr,uk,uz,vi,zh"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="str">
+        <f>LOOKUP(sites!A7,group!B:B,group!E:E)</f>
+        <v>dict "wikisource" dict "grp13" "ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn,ko,la,lij,mk,ml,mr,ms,nap,nl,no,pa,pl,pt,ro,ru"
+"grp14" "sa,sl,sr,su,sv,ta,tcy,te,th,tr,uk,vec,vi,zh,zh-min-nan"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="str">
+        <f>LOOKUP(sites!A8,group!B:B,group!E:E)</f>
+        <v>dict "wikiversity" dict "grp15" "ar,beta,cs,de,el,en,es,fr,hi,it,ja,ko,pt,ru,sl,sv,zh"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="str">
+        <f>LOOKUP(sites!A9,group!B:B,group!E:E)</f>
+        <v>dict "wikivoyage" dict "grp16" "bn,cs,de,en,eo,es,fa,fr,he,hi,id,it,ja,nl,pt,ru,shn,tr,uk,vi,zh"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="str">
+        <f>LOOKUP(sites!A10,group!B:B,group!E:E)</f>
+        <v>dict "wiktionary" dict "grp17" "af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka,kaa,kk,km,kn,ko,ku,lmo,lt,mg,mk,ml,mn,mnw,mr,ms"
+"grp18" "nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si,simple,skr,sq,sr,sv,ta,te,th,tl,tr,uk,uz,vec,vi,wa,yue,zh"</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42D875E-823E-3944-BCDF-3466B950D78C}">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/wmcloud/wiki_list.xlsx
+++ b/wmcloud/wiki_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physikerwelt/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DEDBBB-40FC-564A-A61A-2382702A06FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC573877-234E-6C41-B7B8-0ED265CC7D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25180" yWindow="8200" windowWidth="27240" windowHeight="16440" activeTab="2" xr2:uid="{D48CBC8F-0FA4-9348-871C-669F6E39C391}"/>
+    <workbookView xWindow="25180" yWindow="8200" windowWidth="27240" windowHeight="16440" activeTab="3" xr2:uid="{D48CBC8F-0FA4-9348-871C-669F6E39C391}"/>
   </bookViews>
   <sheets>
     <sheet name="wiki_list" sheetId="1" r:id="rId1"/>
@@ -3919,7 +3919,7 @@
   <dimension ref="A1:F652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D309" sqref="D309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3960,7 +3960,7 @@
         <v>5</v>
       </c>
       <c r="F2" t="str">
-        <f>IF(B1&lt;&gt;B2,D2,F1&amp;","&amp;D2)</f>
+        <f>IF(B1&lt;&gt;B2,D2,F1&amp;"\"", \"""&amp;D2)</f>
         <v>ab</v>
       </c>
     </row>
@@ -3983,8 +3983,8 @@
         <v>5</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F67" si="2">IF(B2&lt;&gt;B3,D3,F2&amp;","&amp;D3)</f>
-        <v>ab,ady</v>
+        <f t="shared" ref="F3:F66" si="2">IF(B2&lt;&gt;B3,D3,F2&amp;"\"", \"""&amp;D3)</f>
+        <v>ab\", \"ady</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af</v>
+        <v>ab\", \"ady\", \"af</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als</v>
+        <v>ab\", \"ady\", \"af\", \"als</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="F7" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -4145,7 +4145,7 @@
       </c>
       <c r="F10" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -4214,7 +4214,7 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="F18" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -4352,7 +4352,7 @@
       </c>
       <c r="F19" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -4444,7 +4444,7 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -4467,7 +4467,7 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -4536,7 +4536,7 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="F32" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -4674,7 +4674,7 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -4696,8 +4696,8 @@
         <v>5</v>
       </c>
       <c r="F34" t="str">
-        <f>IF(B33&lt;&gt;B34,D34,F33&amp;","&amp;D34)</f>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn</v>
+        <f t="shared" si="2"/>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="F35" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -4743,7 +4743,7 @@
       </c>
       <c r="F36" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -4766,7 +4766,7 @@
       </c>
       <c r="F37" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm\", \"bn</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm\", \"bn\", \"bo</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="F39" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm\", \"bn\", \"bo\", \"bpy</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="F40" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm\", \"bn\", \"bo\", \"bpy\", \"br</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm\", \"bn\", \"bo\", \"bpy\", \"br\", \"bs</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="F42" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm\", \"bn\", \"bo\", \"bpy\", \"br\", \"bs\", \"btm</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="F43" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm\", \"bn\", \"bo\", \"bpy\", \"br\", \"bs\", \"btm\", \"bug</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="F44" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm\", \"bn\", \"bo\", \"bpy\", \"br\", \"bs\", \"btm\", \"bug\", \"bxr</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="F45" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm\", \"bn\", \"bo\", \"bpy\", \"br\", \"bs\", \"btm\", \"bug\", \"bxr\", \"ca</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -4973,7 +4973,7 @@
       </c>
       <c r="F46" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca,cbk-zam</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm\", \"bn\", \"bo\", \"bpy\", \"br\", \"bs\", \"btm\", \"bug\", \"bxr\", \"ca\", \"cbk-zam</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="F47" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca,cbk-zam,cdo</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm\", \"bn\", \"bo\", \"bpy\", \"br\", \"bs\", \"btm\", \"bug\", \"bxr\", \"ca\", \"cbk-zam\", \"cdo</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -5019,7 +5019,7 @@
       </c>
       <c r="F48" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca,cbk-zam,cdo,ce</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm\", \"bn\", \"bo\", \"bpy\", \"br\", \"bs\", \"btm\", \"bug\", \"bxr\", \"ca\", \"cbk-zam\", \"cdo\", \"ce</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="F49" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca,cbk-zam,cdo,ce,ceb</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm\", \"bn\", \"bo\", \"bpy\", \"br\", \"bs\", \"btm\", \"bug\", \"bxr\", \"ca\", \"cbk-zam\", \"cdo\", \"ce\", \"ceb</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="F50" t="str">
         <f t="shared" si="2"/>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca,cbk-zam,cdo,ce,ceb,ch</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm\", \"bn\", \"bo\", \"bpy\", \"br\", \"bs\", \"btm\", \"bug\", \"bxr\", \"ca\", \"cbk-zam\", \"cdo\", \"ce\", \"ceb\", \"ch</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -5111,7 +5111,7 @@
       </c>
       <c r="F52" t="str">
         <f t="shared" si="2"/>
-        <v>ckb,co</v>
+        <v>ckb\", \"co</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -5134,7 +5134,7 @@
       </c>
       <c r="F53" t="str">
         <f t="shared" si="2"/>
-        <v>ckb,co,commons</v>
+        <v>ckb\", \"co\", \"commons</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="F54" t="str">
         <f t="shared" si="2"/>
-        <v>ckb,co,commons,crh</v>
+        <v>ckb\", \"co\", \"commons\", \"crh</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="F55" t="str">
         <f t="shared" si="2"/>
-        <v>ckb,co,commons,crh,cs</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="F56" t="str">
         <f t="shared" si="2"/>
-        <v>ckb,co,commons,crh,cs,csb</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="F57" t="str">
         <f t="shared" si="2"/>
-        <v>ckb,co,commons,crh,cs,csb,cu</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="F58" t="str">
         <f t="shared" si="2"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="F59" t="str">
         <f t="shared" si="2"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="F60" t="str">
         <f t="shared" si="2"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -5318,7 +5318,7 @@
       </c>
       <c r="F61" t="str">
         <f t="shared" si="2"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="F62" t="str">
         <f t="shared" si="2"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="F63" t="str">
         <f t="shared" si="2"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="F64" t="str">
         <f t="shared" si="2"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="F65" t="str">
         <f t="shared" si="2"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="F66" t="str">
         <f t="shared" si="2"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -5455,8 +5455,8 @@
         <v>5</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="2"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp</v>
+        <f t="shared" ref="F67:F130" si="5">IF(B66&lt;&gt;B67,D67,F66&amp;"\"", \"""&amp;D67)</f>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -5478,8 +5478,8 @@
         <v>5</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" ref="F68:F131" si="5">IF(B67&lt;&gt;B68,D68,F67&amp;","&amp;D68)</f>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty</v>
+        <f t="shared" si="5"/>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -5502,7 +5502,7 @@
       </c>
       <c r="F69" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="F70" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="F71" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="F72" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -5594,7 +5594,7 @@
       </c>
       <c r="F73" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -5617,7 +5617,7 @@
       </c>
       <c r="F74" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -5640,7 +5640,7 @@
       </c>
       <c r="F75" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="F76" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="F77" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="F78" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="F79" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -5755,7 +5755,7 @@
       </c>
       <c r="F80" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -5778,7 +5778,7 @@
       </c>
       <c r="F81" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="F82" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="F83" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="F84" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -5870,7 +5870,7 @@
       </c>
       <c r="F85" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -5893,7 +5893,7 @@
       </c>
       <c r="F86" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo\", \"fr</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="F87" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo\", \"fr\", \"frp</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="F88" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo\", \"fr\", \"frp\", \"frr</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -5962,7 +5962,7 @@
       </c>
       <c r="F89" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo\", \"fr\", \"frp\", \"frr\", \"fur</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="F90" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo\", \"fr\", \"frp\", \"frr\", \"fur\", \"fy</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -6008,7 +6008,7 @@
       </c>
       <c r="F91" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo\", \"fr\", \"frp\", \"frr\", \"fur\", \"fy\", \"ga</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="F92" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo\", \"fr\", \"frp\", \"frr\", \"fur\", \"fy\", \"ga\", \"gag</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="F93" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo\", \"fr\", \"frp\", \"frr\", \"fur\", \"fy\", \"ga\", \"gag\", \"gan</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="F94" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan,gd</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo\", \"fr\", \"frp\", \"frr\", \"fur\", \"fy\", \"ga\", \"gag\", \"gan\", \"gd</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -6100,7 +6100,7 @@
       </c>
       <c r="F95" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan,gd,gl</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo\", \"fr\", \"frp\", \"frr\", \"fur\", \"fy\", \"ga\", \"gag\", \"gan\", \"gd\", \"gl</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="F96" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan,gd,gl,glk</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo\", \"fr\", \"frp\", \"frr\", \"fur\", \"fy\", \"ga\", \"gag\", \"gan\", \"gd\", \"gl\", \"glk</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -6146,7 +6146,7 @@
       </c>
       <c r="F97" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan,gd,gl,glk,gn</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo\", \"fr\", \"frp\", \"frr\", \"fur\", \"fy\", \"ga\", \"gag\", \"gan\", \"gd\", \"gl\", \"glk\", \"gn</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="F98" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan,gd,gl,glk,gn,gom</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo\", \"fr\", \"frp\", \"frr\", \"fur\", \"fy\", \"ga\", \"gag\", \"gan\", \"gd\", \"gl\", \"glk\", \"gn\", \"gom</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -6192,7 +6192,7 @@
       </c>
       <c r="F99" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan,gd,gl,glk,gn,gom,gor</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo\", \"fr\", \"frp\", \"frr\", \"fur\", \"fy\", \"ga\", \"gag\", \"gan\", \"gd\", \"gl\", \"glk\", \"gn\", \"gom\", \"gor</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="F100" t="str">
         <f t="shared" si="5"/>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan,gd,gl,glk,gn,gom,gor,got</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo\", \"fr\", \"frp\", \"frr\", \"fur\", \"fy\", \"ga\", \"gag\", \"gan\", \"gd\", \"gl\", \"glk\", \"gn\", \"gom\", \"gor\", \"got</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="F102" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu</v>
+        <v>gpe\", \"gu</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -6284,7 +6284,7 @@
       </c>
       <c r="F103" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv</v>
+        <v>gpe\", \"gu\", \"gv</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="F104" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="F105" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -6353,7 +6353,7 @@
       </c>
       <c r="F106" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="F107" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -6399,7 +6399,7 @@
       </c>
       <c r="F108" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
@@ -6422,7 +6422,7 @@
       </c>
       <c r="F109" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="F110" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="F111" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="F112" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -6514,7 +6514,7 @@
       </c>
       <c r="F113" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -6537,7 +6537,7 @@
       </c>
       <c r="F114" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="F115" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="F116" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -6606,7 +6606,7 @@
       </c>
       <c r="F117" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="F118" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -6652,7 +6652,7 @@
       </c>
       <c r="F119" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -6675,7 +6675,7 @@
       </c>
       <c r="F120" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="F121" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="F122" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -6744,7 +6744,7 @@
       </c>
       <c r="F123" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -6767,7 +6767,7 @@
       </c>
       <c r="F124" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="F125" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -6813,7 +6813,7 @@
       </c>
       <c r="F126" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -6836,7 +6836,7 @@
       </c>
       <c r="F127" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -6859,7 +6859,7 @@
       </c>
       <c r="F128" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -6882,7 +6882,7 @@
       </c>
       <c r="F129" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -6905,7 +6905,7 @@
       </c>
       <c r="F130" t="str">
         <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -6927,8 +6927,8 @@
         <v>5</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" si="5"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka</v>
+        <f t="shared" ref="F131:F194" si="8">IF(B130&lt;&gt;B131,D131,F130&amp;"\"", \"""&amp;D131)</f>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -6950,8 +6950,8 @@
         <v>5</v>
       </c>
       <c r="F132" t="str">
-        <f t="shared" ref="F132:F195" si="8">IF(B131&lt;&gt;B132,D132,F131&amp;","&amp;D132)</f>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa</v>
+        <f t="shared" si="8"/>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -6974,7 +6974,7 @@
       </c>
       <c r="F133" t="str">
         <f t="shared" si="8"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="F134" t="str">
         <f t="shared" si="8"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -7020,7 +7020,7 @@
       </c>
       <c r="F135" t="str">
         <f t="shared" si="8"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd\", \"kcg</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -7043,7 +7043,7 @@
       </c>
       <c r="F136" t="str">
         <f t="shared" si="8"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd\", \"kcg\", \"kg</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="F137" t="str">
         <f t="shared" si="8"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd\", \"kcg\", \"kg\", \"kge</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="F138" t="str">
         <f t="shared" si="8"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd\", \"kcg\", \"kg\", \"kge\", \"ki</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="F139" t="str">
         <f t="shared" si="8"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd\", \"kcg\", \"kg\", \"kge\", \"ki\", \"kk</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -7135,7 +7135,7 @@
       </c>
       <c r="F140" t="str">
         <f t="shared" si="8"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd\", \"kcg\", \"kg\", \"kge\", \"ki\", \"kk\", \"kl</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -7158,7 +7158,7 @@
       </c>
       <c r="F141" t="str">
         <f t="shared" si="8"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd\", \"kcg\", \"kg\", \"kge\", \"ki\", \"kk\", \"kl\", \"km</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F142" t="str">
         <f t="shared" si="8"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km,kn</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd\", \"kcg\", \"kg\", \"kge\", \"ki\", \"kk\", \"kl\", \"km\", \"kn</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -7204,7 +7204,7 @@
       </c>
       <c r="F143" t="str">
         <f t="shared" si="8"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km,kn,knc</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd\", \"kcg\", \"kg\", \"kge\", \"ki\", \"kk\", \"kl\", \"km\", \"kn\", \"knc</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -7227,7 +7227,7 @@
       </c>
       <c r="F144" t="str">
         <f t="shared" si="8"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km,kn,knc,ko</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd\", \"kcg\", \"kg\", \"kge\", \"ki\", \"kk\", \"kl\", \"km\", \"kn\", \"knc\", \"ko</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
@@ -7250,7 +7250,7 @@
       </c>
       <c r="F145" t="str">
         <f t="shared" si="8"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km,kn,knc,ko,krc</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd\", \"kcg\", \"kg\", \"kge\", \"ki\", \"kk\", \"kl\", \"km\", \"kn\", \"knc\", \"ko\", \"krc</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="F146" t="str">
         <f t="shared" si="8"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km,kn,knc,ko,krc,ks</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd\", \"kcg\", \"kg\", \"kge\", \"ki\", \"kk\", \"kl\", \"km\", \"kn\", \"knc\", \"ko\", \"krc\", \"ks</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
@@ -7296,7 +7296,7 @@
       </c>
       <c r="F147" t="str">
         <f t="shared" si="8"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km,kn,knc,ko,krc,ks,ksh</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd\", \"kcg\", \"kg\", \"kge\", \"ki\", \"kk\", \"kl\", \"km\", \"kn\", \"knc\", \"ko\", \"krc\", \"ks\", \"ksh</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
@@ -7319,7 +7319,7 @@
       </c>
       <c r="F148" t="str">
         <f t="shared" si="8"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km,kn,knc,ko,krc,ks,ksh,ku</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd\", \"kcg\", \"kg\", \"kge\", \"ki\", \"kk\", \"kl\", \"km\", \"kn\", \"knc\", \"ko\", \"krc\", \"ks\", \"ksh\", \"ku</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
@@ -7342,7 +7342,7 @@
       </c>
       <c r="F149" t="str">
         <f t="shared" si="8"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km,kn,knc,ko,krc,ks,ksh,ku,kv</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd\", \"kcg\", \"kg\", \"kge\", \"ki\", \"kk\", \"kl\", \"km\", \"kn\", \"knc\", \"ko\", \"krc\", \"ks\", \"ksh\", \"ku\", \"kv</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="F150" t="str">
         <f t="shared" si="8"/>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km,kn,knc,ko,krc,ks,ksh,ku,kv,kw</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd\", \"kcg\", \"kg\", \"kge\", \"ki\", \"kk\", \"kl\", \"km\", \"kn\", \"knc\", \"ko\", \"krc\", \"ks\", \"ksh\", \"ku\", \"kv\", \"kw</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="F152" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la</v>
+        <v>ky\", \"la</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
@@ -7434,7 +7434,7 @@
       </c>
       <c r="F153" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs</v>
+        <v>ky\", \"la\", \"labs</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="F154" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad</v>
+        <v>ky\", \"la\", \"labs\", \"lad</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="F155" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
@@ -7503,7 +7503,7 @@
       </c>
       <c r="F156" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="F157" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -7549,7 +7549,7 @@
       </c>
       <c r="F158" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="F159" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
@@ -7595,7 +7595,7 @@
       </c>
       <c r="F160" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -7618,7 +7618,7 @@
       </c>
       <c r="F161" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -7641,7 +7641,7 @@
       </c>
       <c r="F162" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="F163" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="F164" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -7710,7 +7710,7 @@
       </c>
       <c r="F165" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -7733,7 +7733,7 @@
       </c>
       <c r="F166" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
@@ -7756,7 +7756,7 @@
       </c>
       <c r="F167" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="F168" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -7802,7 +7802,7 @@
       </c>
       <c r="F169" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -7825,7 +7825,7 @@
       </c>
       <c r="F170" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -7848,7 +7848,7 @@
       </c>
       <c r="F171" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="F172" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="F173" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -7917,7 +7917,7 @@
       </c>
       <c r="F174" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -7940,7 +7940,7 @@
       </c>
       <c r="F175" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="F176" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -7986,7 +7986,7 @@
       </c>
       <c r="F177" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -8009,7 +8009,7 @@
       </c>
       <c r="F178" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="F179" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -8055,7 +8055,7 @@
       </c>
       <c r="F180" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
@@ -8078,7 +8078,7 @@
       </c>
       <c r="F181" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="F182" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -8124,7 +8124,7 @@
       </c>
       <c r="F183" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -8147,7 +8147,7 @@
       </c>
       <c r="F184" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni\", \"mnw</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
@@ -8170,7 +8170,7 @@
       </c>
       <c r="F185" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni\", \"mnw\", \"mo</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="F186" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni\", \"mnw\", \"mo\", \"mr</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -8216,7 +8216,7 @@
       </c>
       <c r="F187" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni\", \"mnw\", \"mo\", \"mr\", \"mrj</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -8239,7 +8239,7 @@
       </c>
       <c r="F188" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni\", \"mnw\", \"mo\", \"mr\", \"mrj\", \"ms</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
@@ -8262,7 +8262,7 @@
       </c>
       <c r="F189" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni\", \"mnw\", \"mo\", \"mr\", \"mrj\", \"ms\", \"mt</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
@@ -8285,7 +8285,7 @@
       </c>
       <c r="F190" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt,mwl</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni\", \"mnw\", \"mo\", \"mr\", \"mrj\", \"ms\", \"mt\", \"mwl</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -8308,7 +8308,7 @@
       </c>
       <c r="F191" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt,mwl,my</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni\", \"mnw\", \"mo\", \"mr\", \"mrj\", \"ms\", \"mt\", \"mwl\", \"my</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -8331,7 +8331,7 @@
       </c>
       <c r="F192" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt,mwl,my,myv</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni\", \"mnw\", \"mo\", \"mr\", \"mrj\", \"ms\", \"mt\", \"mwl\", \"my\", \"myv</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -8354,7 +8354,7 @@
       </c>
       <c r="F193" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt,mwl,my,myv,mzn</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni\", \"mnw\", \"mo\", \"mr\", \"mrj\", \"ms\", \"mt\", \"mwl\", \"my\", \"myv\", \"mzn</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -8377,7 +8377,7 @@
       </c>
       <c r="F194" t="str">
         <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt,mwl,my,myv,mzn,nah</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni\", \"mnw\", \"mo\", \"mr\", \"mrj\", \"ms\", \"mt\", \"mwl\", \"my\", \"myv\", \"mzn\", \"nah</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
@@ -8399,8 +8399,8 @@
         <v>5</v>
       </c>
       <c r="F195" t="str">
-        <f t="shared" si="8"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt,mwl,my,myv,mzn,nah,nap</v>
+        <f t="shared" ref="F195:F258" si="11">IF(B194&lt;&gt;B195,D195,F194&amp;"\"", \"""&amp;D195)</f>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni\", \"mnw\", \"mo\", \"mr\", \"mrj\", \"ms\", \"mt\", \"mwl\", \"my\", \"myv\", \"mzn\", \"nah\", \"nap</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -8422,8 +8422,8 @@
         <v>5</v>
       </c>
       <c r="F196" t="str">
-        <f t="shared" ref="F196:F259" si="11">IF(B195&lt;&gt;B196,D196,F195&amp;","&amp;D196)</f>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt,mwl,my,myv,mzn,nah,nap,nds</v>
+        <f t="shared" si="11"/>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni\", \"mnw\", \"mo\", \"mr\", \"mrj\", \"ms\", \"mt\", \"mwl\", \"my\", \"myv\", \"mzn\", \"nah\", \"nap\", \"nds</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
@@ -8446,7 +8446,7 @@
       </c>
       <c r="F197" t="str">
         <f t="shared" si="11"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt,mwl,my,myv,mzn,nah,nap,nds,nds-nl</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni\", \"mnw\", \"mo\", \"mr\", \"mrj\", \"ms\", \"mt\", \"mwl\", \"my\", \"myv\", \"mzn\", \"nah\", \"nap\", \"nds\", \"nds-nl</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="F198" t="str">
         <f t="shared" si="11"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt,mwl,my,myv,mzn,nah,nap,nds,nds-nl,ne</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni\", \"mnw\", \"mo\", \"mr\", \"mrj\", \"ms\", \"mt\", \"mwl\", \"my\", \"myv\", \"mzn\", \"nah\", \"nap\", \"nds\", \"nds-nl\", \"ne</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -8492,7 +8492,7 @@
       </c>
       <c r="F199" t="str">
         <f t="shared" si="11"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt,mwl,my,myv,mzn,nah,nap,nds,nds-nl,ne,new</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni\", \"mnw\", \"mo\", \"mr\", \"mrj\", \"ms\", \"mt\", \"mwl\", \"my\", \"myv\", \"mzn\", \"nah\", \"nap\", \"nds\", \"nds-nl\", \"ne\", \"new</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
@@ -8515,7 +8515,7 @@
       </c>
       <c r="F200" t="str">
         <f t="shared" si="11"/>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt,mwl,my,myv,mzn,nah,nap,nds,nds-nl,ne,new,nia</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni\", \"mnw\", \"mo\", \"mr\", \"mrj\", \"ms\", \"mt\", \"mwl\", \"my\", \"myv\", \"mzn\", \"nah\", \"nap\", \"nds\", \"nds-nl\", \"ne\", \"new\", \"nia</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
@@ -8561,7 +8561,7 @@
       </c>
       <c r="F202" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn</v>
+        <v>nl\", \"nn</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="F203" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no</v>
+        <v>nl\", \"nn\", \"no</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -8607,7 +8607,7 @@
       </c>
       <c r="F204" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov</v>
+        <v>nl\", \"nn\", \"no\", \"nov</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
@@ -8630,7 +8630,7 @@
       </c>
       <c r="F205" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="F206" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="F207" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="F208" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -8722,7 +8722,7 @@
       </c>
       <c r="F209" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -8745,7 +8745,7 @@
       </c>
       <c r="F210" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="F211" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="F212" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="F213" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -8837,7 +8837,7 @@
       </c>
       <c r="F214" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="F215" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -8883,7 +8883,7 @@
       </c>
       <c r="F216" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -8906,7 +8906,7 @@
       </c>
       <c r="F217" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -8929,7 +8929,7 @@
       </c>
       <c r="F218" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -8952,7 +8952,7 @@
       </c>
       <c r="F219" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -8975,7 +8975,7 @@
       </c>
       <c r="F220" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="F221" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -9021,7 +9021,7 @@
       </c>
       <c r="F222" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -9044,7 +9044,7 @@
       </c>
       <c r="F223" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -9067,7 +9067,7 @@
       </c>
       <c r="F224" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
@@ -9090,7 +9090,7 @@
       </c>
       <c r="F225" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -9113,7 +9113,7 @@
       </c>
       <c r="F226" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="F227" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
@@ -9159,7 +9159,7 @@
       </c>
       <c r="F228" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -9182,7 +9182,7 @@
       </c>
       <c r="F229" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
@@ -9205,7 +9205,7 @@
       </c>
       <c r="F230" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
@@ -9228,7 +9228,7 @@
       </c>
       <c r="F231" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -9251,7 +9251,7 @@
       </c>
       <c r="F232" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
@@ -9274,7 +9274,7 @@
       </c>
       <c r="F233" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm\", \"rmy</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
@@ -9297,7 +9297,7 @@
       </c>
       <c r="F234" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm\", \"rmy\", \"ro</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
@@ -9320,7 +9320,7 @@
       </c>
       <c r="F235" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm\", \"rmy\", \"ro\", \"roa-rup</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
@@ -9343,7 +9343,7 @@
       </c>
       <c r="F236" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm\", \"rmy\", \"ro\", \"roa-rup\", \"roa-tara</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
@@ -9366,7 +9366,7 @@
       </c>
       <c r="F237" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm\", \"rmy\", \"ro\", \"roa-rup\", \"roa-tara\", \"rsk</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
@@ -9389,7 +9389,7 @@
       </c>
       <c r="F238" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk,ru</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm\", \"rmy\", \"ro\", \"roa-rup\", \"roa-tara\", \"rsk\", \"ru</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
@@ -9412,7 +9412,7 @@
       </c>
       <c r="F239" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk,ru,rue</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm\", \"rmy\", \"ro\", \"roa-rup\", \"roa-tara\", \"rsk\", \"ru\", \"rue</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="F240" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk,ru,rue,rw</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm\", \"rmy\", \"ro\", \"roa-rup\", \"roa-tara\", \"rsk\", \"ru\", \"rue\", \"rw</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
@@ -9458,7 +9458,7 @@
       </c>
       <c r="F241" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk,ru,rue,rw,sa</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm\", \"rmy\", \"ro\", \"roa-rup\", \"roa-tara\", \"rsk\", \"ru\", \"rue\", \"rw\", \"sa</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.2">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="F242" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk,ru,rue,rw,sa,sah</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm\", \"rmy\", \"ro\", \"roa-rup\", \"roa-tara\", \"rsk\", \"ru\", \"rue\", \"rw\", \"sa\", \"sah</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
@@ -9504,7 +9504,7 @@
       </c>
       <c r="F243" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk,ru,rue,rw,sa,sah,sat</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm\", \"rmy\", \"ro\", \"roa-rup\", \"roa-tara\", \"rsk\", \"ru\", \"rue\", \"rw\", \"sa\", \"sah\", \"sat</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
@@ -9527,7 +9527,7 @@
       </c>
       <c r="F244" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk,ru,rue,rw,sa,sah,sat,sc</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm\", \"rmy\", \"ro\", \"roa-rup\", \"roa-tara\", \"rsk\", \"ru\", \"rue\", \"rw\", \"sa\", \"sah\", \"sat\", \"sc</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
@@ -9550,7 +9550,7 @@
       </c>
       <c r="F245" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk,ru,rue,rw,sa,sah,sat,sc,scn</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm\", \"rmy\", \"ro\", \"roa-rup\", \"roa-tara\", \"rsk\", \"ru\", \"rue\", \"rw\", \"sa\", \"sah\", \"sat\", \"sc\", \"scn</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="F246" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk,ru,rue,rw,sa,sah,sat,sc,scn,sco</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm\", \"rmy\", \"ro\", \"roa-rup\", \"roa-tara\", \"rsk\", \"ru\", \"rue\", \"rw\", \"sa\", \"sah\", \"sat\", \"sc\", \"scn\", \"sco</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="F247" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk,ru,rue,rw,sa,sah,sat,sc,scn,sco,sd</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm\", \"rmy\", \"ro\", \"roa-rup\", \"roa-tara\", \"rsk\", \"ru\", \"rue\", \"rw\", \"sa\", \"sah\", \"sat\", \"sc\", \"scn\", \"sco\", \"sd</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
@@ -9619,7 +9619,7 @@
       </c>
       <c r="F248" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk,ru,rue,rw,sa,sah,sat,sc,scn,sco,sd,se</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm\", \"rmy\", \"ro\", \"roa-rup\", \"roa-tara\", \"rsk\", \"ru\", \"rue\", \"rw\", \"sa\", \"sah\", \"sat\", \"sc\", \"scn\", \"sco\", \"sd\", \"se</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
@@ -9642,7 +9642,7 @@
       </c>
       <c r="F249" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk,ru,rue,rw,sa,sah,sat,sc,scn,sco,sd,se,sh</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm\", \"rmy\", \"ro\", \"roa-rup\", \"roa-tara\", \"rsk\", \"ru\", \"rue\", \"rw\", \"sa\", \"sah\", \"sat\", \"sc\", \"scn\", \"sco\", \"sd\", \"se\", \"sh</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
@@ -9665,7 +9665,7 @@
       </c>
       <c r="F250" t="str">
         <f t="shared" si="11"/>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk,ru,rue,rw,sa,sah,sat,sc,scn,sco,sd,se,sh,shi</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm\", \"rmy\", \"ro\", \"roa-rup\", \"roa-tara\", \"rsk\", \"ru\", \"rue\", \"rw\", \"sa\", \"sah\", \"sat\", \"sc\", \"scn\", \"sco\", \"sd\", \"se\", \"sh\", \"shi</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
@@ -9711,7 +9711,7 @@
       </c>
       <c r="F252" t="str">
         <f t="shared" si="11"/>
-        <v>shn,si</v>
+        <v>shn\", \"si</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
@@ -9734,7 +9734,7 @@
       </c>
       <c r="F253" t="str">
         <f t="shared" si="11"/>
-        <v>shn,si,simple</v>
+        <v>shn\", \"si\", \"simple</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
@@ -9757,7 +9757,7 @@
       </c>
       <c r="F254" t="str">
         <f t="shared" si="11"/>
-        <v>shn,si,simple,sk</v>
+        <v>shn\", \"si\", \"simple\", \"sk</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
@@ -9780,7 +9780,7 @@
       </c>
       <c r="F255" t="str">
         <f t="shared" si="11"/>
-        <v>shn,si,simple,sk,skr</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
@@ -9803,7 +9803,7 @@
       </c>
       <c r="F256" t="str">
         <f t="shared" si="11"/>
-        <v>shn,si,simple,sk,skr,sl</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
@@ -9826,7 +9826,7 @@
       </c>
       <c r="F257" t="str">
         <f t="shared" si="11"/>
-        <v>shn,si,simple,sk,skr,sl,sm</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
@@ -9849,7 +9849,7 @@
       </c>
       <c r="F258" t="str">
         <f t="shared" si="11"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
@@ -9871,8 +9871,8 @@
         <v>5</v>
       </c>
       <c r="F259" t="str">
-        <f t="shared" si="11"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn</v>
+        <f t="shared" ref="F259:F322" si="14">IF(B258&lt;&gt;B259,D259,F258&amp;"\"", \"""&amp;D259)</f>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
@@ -9894,8 +9894,8 @@
         <v>5</v>
       </c>
       <c r="F260" t="str">
-        <f t="shared" ref="F260:F323" si="14">IF(B259&lt;&gt;B260,D260,F259&amp;","&amp;D260)</f>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so</v>
+        <f t="shared" si="14"/>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
@@ -9918,7 +9918,7 @@
       </c>
       <c r="F261" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
@@ -9941,7 +9941,7 @@
       </c>
       <c r="F262" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="F263" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="F264" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
@@ -10010,7 +10010,7 @@
       </c>
       <c r="F265" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="F266" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
@@ -10056,7 +10056,7 @@
       </c>
       <c r="F267" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
@@ -10079,7 +10079,7 @@
       </c>
       <c r="F268" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
@@ -10102,7 +10102,7 @@
       </c>
       <c r="F269" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
@@ -10125,7 +10125,7 @@
       </c>
       <c r="F270" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
@@ -10148,7 +10148,7 @@
       </c>
       <c r="F271" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
@@ -10171,7 +10171,7 @@
       </c>
       <c r="F272" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
@@ -10194,7 +10194,7 @@
       </c>
       <c r="F273" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="F274" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="F275" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
@@ -10263,7 +10263,7 @@
       </c>
       <c r="F276" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
@@ -10286,7 +10286,7 @@
       </c>
       <c r="F277" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
@@ -10309,7 +10309,7 @@
       </c>
       <c r="F278" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
@@ -10332,7 +10332,7 @@
       </c>
       <c r="F279" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
@@ -10355,7 +10355,7 @@
       </c>
       <c r="F280" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="F281" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
@@ -10401,7 +10401,7 @@
       </c>
       <c r="F282" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg\", \"th</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.2">
@@ -10424,7 +10424,7 @@
       </c>
       <c r="F283" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg\", \"th\", \"tk</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
@@ -10447,7 +10447,7 @@
       </c>
       <c r="F284" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg\", \"th\", \"tk\", \"tl</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
@@ -10470,7 +10470,7 @@
       </c>
       <c r="F285" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg\", \"th\", \"tk\", \"tl\", \"tly</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
@@ -10493,7 +10493,7 @@
       </c>
       <c r="F286" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly,tn</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg\", \"th\", \"tk\", \"tl\", \"tly\", \"tn</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
@@ -10516,7 +10516,7 @@
       </c>
       <c r="F287" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly,tn,tpi</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg\", \"th\", \"tk\", \"tl\", \"tly\", \"tn\", \"tpi</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
@@ -10539,7 +10539,7 @@
       </c>
       <c r="F288" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly,tn,tpi,tr</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg\", \"th\", \"tk\", \"tl\", \"tly\", \"tn\", \"tpi\", \"tr</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
@@ -10562,7 +10562,7 @@
       </c>
       <c r="F289" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly,tn,tpi,tr,ts</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg\", \"th\", \"tk\", \"tl\", \"tly\", \"tn\", \"tpi\", \"tr\", \"ts</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="F290" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly,tn,tpi,tr,ts,tt</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg\", \"th\", \"tk\", \"tl\", \"tly\", \"tn\", \"tpi\", \"tr\", \"ts\", \"tt</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
@@ -10608,7 +10608,7 @@
       </c>
       <c r="F291" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly,tn,tpi,tr,ts,tt,tum</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg\", \"th\", \"tk\", \"tl\", \"tly\", \"tn\", \"tpi\", \"tr\", \"ts\", \"tt\", \"tum</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
@@ -10631,7 +10631,7 @@
       </c>
       <c r="F292" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly,tn,tpi,tr,ts,tt,tum,tw</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg\", \"th\", \"tk\", \"tl\", \"tly\", \"tn\", \"tpi\", \"tr\", \"ts\", \"tt\", \"tum\", \"tw</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
@@ -10654,7 +10654,7 @@
       </c>
       <c r="F293" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly,tn,tpi,tr,ts,tt,tum,tw,ty</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg\", \"th\", \"tk\", \"tl\", \"tly\", \"tn\", \"tpi\", \"tr\", \"ts\", \"tt\", \"tum\", \"tw\", \"ty</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="F294" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly,tn,tpi,tr,ts,tt,tum,tw,ty,tyv</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg\", \"th\", \"tk\", \"tl\", \"tly\", \"tn\", \"tpi\", \"tr\", \"ts\", \"tt\", \"tum\", \"tw\", \"ty\", \"tyv</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
@@ -10700,7 +10700,7 @@
       </c>
       <c r="F295" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly,tn,tpi,tr,ts,tt,tum,tw,ty,tyv,udm</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg\", \"th\", \"tk\", \"tl\", \"tly\", \"tn\", \"tpi\", \"tr\", \"ts\", \"tt\", \"tum\", \"tw\", \"ty\", \"tyv\", \"udm</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
@@ -10723,7 +10723,7 @@
       </c>
       <c r="F296" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly,tn,tpi,tr,ts,tt,tum,tw,ty,tyv,udm,ug</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg\", \"th\", \"tk\", \"tl\", \"tly\", \"tn\", \"tpi\", \"tr\", \"ts\", \"tt\", \"tum\", \"tw\", \"ty\", \"tyv\", \"udm\", \"ug</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
@@ -10746,7 +10746,7 @@
       </c>
       <c r="F297" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly,tn,tpi,tr,ts,tt,tum,tw,ty,tyv,udm,ug,uk</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg\", \"th\", \"tk\", \"tl\", \"tly\", \"tn\", \"tpi\", \"tr\", \"ts\", \"tt\", \"tum\", \"tw\", \"ty\", \"tyv\", \"udm\", \"ug\", \"uk</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
@@ -10769,7 +10769,7 @@
       </c>
       <c r="F298" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly,tn,tpi,tr,ts,tt,tum,tw,ty,tyv,udm,ug,uk,ur</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg\", \"th\", \"tk\", \"tl\", \"tly\", \"tn\", \"tpi\", \"tr\", \"ts\", \"tt\", \"tum\", \"tw\", \"ty\", \"tyv\", \"udm\", \"ug\", \"uk\", \"ur</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="F299" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly,tn,tpi,tr,ts,tt,tum,tw,ty,tyv,udm,ug,uk,ur,usability</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg\", \"th\", \"tk\", \"tl\", \"tly\", \"tn\", \"tpi\", \"tr\", \"ts\", \"tt\", \"tum\", \"tw\", \"ty\", \"tyv\", \"udm\", \"ug\", \"uk\", \"ur\", \"usability</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
@@ -10815,7 +10815,7 @@
       </c>
       <c r="F300" t="str">
         <f t="shared" si="14"/>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly,tn,tpi,tr,ts,tt,tum,tw,ty,tyv,udm,ug,uk,ur,usability,uz</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg\", \"th\", \"tk\", \"tl\", \"tly\", \"tn\", \"tpi\", \"tr\", \"ts\", \"tt\", \"tum\", \"tw\", \"ty\", \"tyv\", \"udm\", \"ug\", \"uk\", \"ur\", \"usability\", \"uz</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
@@ -10861,7 +10861,7 @@
       </c>
       <c r="F302" t="str">
         <f t="shared" si="14"/>
-        <v>vec,vep</v>
+        <v>vec\", \"vep</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="F303" t="str">
         <f t="shared" si="14"/>
-        <v>vec,vep,vi</v>
+        <v>vec\", \"vep\", \"vi</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
@@ -10907,7 +10907,7 @@
       </c>
       <c r="F304" t="str">
         <f t="shared" si="14"/>
-        <v>vec,vep,vi,vls</v>
+        <v>vec\", \"vep\", \"vi\", \"vls</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.2">
@@ -10930,7 +10930,7 @@
       </c>
       <c r="F305" t="str">
         <f t="shared" si="14"/>
-        <v>vec,vep,vi,vls,vo</v>
+        <v>vec\", \"vep\", \"vi\", \"vls\", \"vo</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
@@ -10953,7 +10953,7 @@
       </c>
       <c r="F306" t="str">
         <f t="shared" si="14"/>
-        <v>vec,vep,vi,vls,vo,wa</v>
+        <v>vec\", \"vep\", \"vi\", \"vls\", \"vo\", \"wa</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
@@ -10976,7 +10976,7 @@
       </c>
       <c r="F307" t="str">
         <f t="shared" si="14"/>
-        <v>vec,vep,vi,vls,vo,wa,war</v>
+        <v>vec\", \"vep\", \"vi\", \"vls\", \"vo\", \"wa\", \"war</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="F308" t="str">
         <f t="shared" si="14"/>
-        <v>vec,vep,vi,vls,vo,wa,war,wikidata</v>
+        <v>vec\", \"vep\", \"vi\", \"vls\", \"vo\", \"wa\", \"war\", \"wikidata</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
@@ -11022,7 +11022,7 @@
       </c>
       <c r="F309" t="str">
         <f t="shared" si="14"/>
-        <v>vec,vep,vi,vls,vo,wa,war,wikidata,wikimania2007</v>
+        <v>vec\", \"vep\", \"vi\", \"vls\", \"vo\", \"wa\", \"war\", \"wikidata\", \"wikimania2007</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
@@ -11045,7 +11045,7 @@
       </c>
       <c r="F310" t="str">
         <f t="shared" si="14"/>
-        <v>vec,vep,vi,vls,vo,wa,war,wikidata,wikimania2007,wo</v>
+        <v>vec\", \"vep\", \"vi\", \"vls\", \"vo\", \"wa\", \"war\", \"wikidata\", \"wikimania2007\", \"wo</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
@@ -11068,7 +11068,7 @@
       </c>
       <c r="F311" t="str">
         <f t="shared" si="14"/>
-        <v>vec,vep,vi,vls,vo,wa,war,wikidata,wikimania2007,wo,wuu</v>
+        <v>vec\", \"vep\", \"vi\", \"vls\", \"vo\", \"wa\", \"war\", \"wikidata\", \"wikimania2007\", \"wo\", \"wuu</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
@@ -11091,7 +11091,7 @@
       </c>
       <c r="F312" t="str">
         <f t="shared" si="14"/>
-        <v>vec,vep,vi,vls,vo,wa,war,wikidata,wikimania2007,wo,wuu,xal</v>
+        <v>vec\", \"vep\", \"vi\", \"vls\", \"vo\", \"wa\", \"war\", \"wikidata\", \"wikimania2007\", \"wo\", \"wuu\", \"xal</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
@@ -11114,7 +11114,7 @@
       </c>
       <c r="F313" t="str">
         <f t="shared" si="14"/>
-        <v>vec,vep,vi,vls,vo,wa,war,wikidata,wikimania2007,wo,wuu,xal,xh</v>
+        <v>vec\", \"vep\", \"vi\", \"vls\", \"vo\", \"wa\", \"war\", \"wikidata\", \"wikimania2007\", \"wo\", \"wuu\", \"xal\", \"xh</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
@@ -11137,7 +11137,7 @@
       </c>
       <c r="F314" t="str">
         <f t="shared" si="14"/>
-        <v>vec,vep,vi,vls,vo,wa,war,wikidata,wikimania2007,wo,wuu,xal,xh,xmf</v>
+        <v>vec\", \"vep\", \"vi\", \"vls\", \"vo\", \"wa\", \"war\", \"wikidata\", \"wikimania2007\", \"wo\", \"wuu\", \"xal\", \"xh\", \"xmf</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="F315" t="str">
         <f t="shared" si="14"/>
-        <v>vec,vep,vi,vls,vo,wa,war,wikidata,wikimania2007,wo,wuu,xal,xh,xmf,yi</v>
+        <v>vec\", \"vep\", \"vi\", \"vls\", \"vo\", \"wa\", \"war\", \"wikidata\", \"wikimania2007\", \"wo\", \"wuu\", \"xal\", \"xh\", \"xmf\", \"yi</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
@@ -11183,7 +11183,7 @@
       </c>
       <c r="F316" t="str">
         <f t="shared" si="14"/>
-        <v>vec,vep,vi,vls,vo,wa,war,wikidata,wikimania2007,wo,wuu,xal,xh,xmf,yi,yo</v>
+        <v>vec\", \"vep\", \"vi\", \"vls\", \"vo\", \"wa\", \"war\", \"wikidata\", \"wikimania2007\", \"wo\", \"wuu\", \"xal\", \"xh\", \"xmf\", \"yi\", \"yo</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
@@ -11206,7 +11206,7 @@
       </c>
       <c r="F317" t="str">
         <f t="shared" si="14"/>
-        <v>vec,vep,vi,vls,vo,wa,war,wikidata,wikimania2007,wo,wuu,xal,xh,xmf,yi,yo,za</v>
+        <v>vec\", \"vep\", \"vi\", \"vls\", \"vo\", \"wa\", \"war\", \"wikidata\", \"wikimania2007\", \"wo\", \"wuu\", \"xal\", \"xh\", \"xmf\", \"yi\", \"yo\", \"za</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
@@ -11229,7 +11229,7 @@
       </c>
       <c r="F318" t="str">
         <f t="shared" si="14"/>
-        <v>vec,vep,vi,vls,vo,wa,war,wikidata,wikimania2007,wo,wuu,xal,xh,xmf,yi,yo,za,zea</v>
+        <v>vec\", \"vep\", \"vi\", \"vls\", \"vo\", \"wa\", \"war\", \"wikidata\", \"wikimania2007\", \"wo\", \"wuu\", \"xal\", \"xh\", \"xmf\", \"yi\", \"yo\", \"za\", \"zea</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
@@ -11252,7 +11252,7 @@
       </c>
       <c r="F319" t="str">
         <f t="shared" si="14"/>
-        <v>vec,vep,vi,vls,vo,wa,war,wikidata,wikimania2007,wo,wuu,xal,xh,xmf,yi,yo,za,zea,zgh</v>
+        <v>vec\", \"vep\", \"vi\", \"vls\", \"vo\", \"wa\", \"war\", \"wikidata\", \"wikimania2007\", \"wo\", \"wuu\", \"xal\", \"xh\", \"xmf\", \"yi\", \"yo\", \"za\", \"zea\", \"zgh</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
@@ -11275,7 +11275,7 @@
       </c>
       <c r="F320" t="str">
         <f t="shared" si="14"/>
-        <v>vec,vep,vi,vls,vo,wa,war,wikidata,wikimania2007,wo,wuu,xal,xh,xmf,yi,yo,za,zea,zgh,zh</v>
+        <v>vec\", \"vep\", \"vi\", \"vls\", \"vo\", \"wa\", \"war\", \"wikidata\", \"wikimania2007\", \"wo\", \"wuu\", \"xal\", \"xh\", \"xmf\", \"yi\", \"yo\", \"za\", \"zea\", \"zgh\", \"zh</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
@@ -11298,7 +11298,7 @@
       </c>
       <c r="F321" t="str">
         <f t="shared" si="14"/>
-        <v>vec,vep,vi,vls,vo,wa,war,wikidata,wikimania2007,wo,wuu,xal,xh,xmf,yi,yo,za,zea,zgh,zh,zh-classical</v>
+        <v>vec\", \"vep\", \"vi\", \"vls\", \"vo\", \"wa\", \"war\", \"wikidata\", \"wikimania2007\", \"wo\", \"wuu\", \"xal\", \"xh\", \"xmf\", \"yi\", \"yo\", \"za\", \"zea\", \"zgh\", \"zh\", \"zh-classical</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
@@ -11321,7 +11321,7 @@
       </c>
       <c r="F322" t="str">
         <f t="shared" si="14"/>
-        <v>vec,vep,vi,vls,vo,wa,war,wikidata,wikimania2007,wo,wuu,xal,xh,xmf,yi,yo,za,zea,zgh,zh,zh-classical,zh-min-nan</v>
+        <v>vec\", \"vep\", \"vi\", \"vls\", \"vo\", \"wa\", \"war\", \"wikidata\", \"wikimania2007\", \"wo\", \"wuu\", \"xal\", \"xh\", \"xmf\", \"yi\", \"yo\", \"za\", \"zea\", \"zgh\", \"zh\", \"zh-classical\", \"zh-min-nan</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
@@ -11343,8 +11343,8 @@
         <v>5</v>
       </c>
       <c r="F323" t="str">
-        <f t="shared" si="14"/>
-        <v>vec,vep,vi,vls,vo,wa,war,wikidata,wikimania2007,wo,wuu,xal,xh,xmf,yi,yo,za,zea,zgh,zh,zh-classical,zh-min-nan,zh-yue</v>
+        <f t="shared" ref="F323:F386" si="17">IF(B322&lt;&gt;B323,D323,F322&amp;"\"", \"""&amp;D323)</f>
+        <v>vec\", \"vep\", \"vi\", \"vls\", \"vo\", \"wa\", \"war\", \"wikidata\", \"wikimania2007\", \"wo\", \"wuu\", \"xal\", \"xh\", \"xmf\", \"yi\", \"yo\", \"za\", \"zea\", \"zgh\", \"zh\", \"zh-classical\", \"zh-min-nan\", \"zh-yue</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
@@ -11366,8 +11366,8 @@
         <v>5</v>
       </c>
       <c r="F324" t="str">
-        <f t="shared" ref="F324:F387" si="17">IF(B323&lt;&gt;B324,D324,F323&amp;","&amp;D324)</f>
-        <v>vec,vep,vi,vls,vo,wa,war,wikidata,wikimania2007,wo,wuu,xal,xh,xmf,yi,yo,za,zea,zgh,zh,zh-classical,zh-min-nan,zh-yue,zu</v>
+        <f t="shared" si="17"/>
+        <v>vec\", \"vep\", \"vi\", \"vls\", \"vo\", \"wa\", \"war\", \"wikidata\", \"wikimania2007\", \"wo\", \"wuu\", \"xal\", \"xh\", \"xmf\", \"yi\", \"yo\", \"za\", \"zea\", \"zgh\", \"zh\", \"zh-classical\", \"zh-min-nan\", \"zh-yue\", \"zu</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
@@ -11413,7 +11413,7 @@
       </c>
       <c r="F326" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang</v>
+        <v>af\", \"ang</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
@@ -11436,7 +11436,7 @@
       </c>
       <c r="F327" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar</v>
+        <v>af\", \"ang\", \"ar</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
@@ -11459,7 +11459,7 @@
       </c>
       <c r="F328" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az</v>
+        <v>af\", \"ang\", \"ar\", \"az</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
@@ -11482,7 +11482,7 @@
       </c>
       <c r="F329" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
@@ -11505,7 +11505,7 @@
       </c>
       <c r="F330" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
@@ -11528,7 +11528,7 @@
       </c>
       <c r="F331" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
@@ -11551,7 +11551,7 @@
       </c>
       <c r="F332" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
@@ -11574,7 +11574,7 @@
       </c>
       <c r="F333" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
@@ -11597,7 +11597,7 @@
       </c>
       <c r="F334" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
@@ -11620,7 +11620,7 @@
       </c>
       <c r="F335" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
@@ -11643,7 +11643,7 @@
       </c>
       <c r="F336" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
@@ -11666,7 +11666,7 @@
       </c>
       <c r="F337" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
@@ -11689,7 +11689,7 @@
       </c>
       <c r="F338" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
@@ -11712,7 +11712,7 @@
       </c>
       <c r="F339" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
@@ -11735,7 +11735,7 @@
       </c>
       <c r="F340" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
@@ -11758,7 +11758,7 @@
       </c>
       <c r="F341" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="F342" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
@@ -11804,7 +11804,7 @@
       </c>
       <c r="F343" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
@@ -11827,7 +11827,7 @@
       </c>
       <c r="F344" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
@@ -11850,7 +11850,7 @@
       </c>
       <c r="F345" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
@@ -11873,7 +11873,7 @@
       </c>
       <c r="F346" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="F347" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
@@ -11919,7 +11919,7 @@
       </c>
       <c r="F348" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.2">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="F349" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F350" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
@@ -11988,7 +11988,7 @@
       </c>
       <c r="F351" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.2">
@@ -12011,7 +12011,7 @@
       </c>
       <c r="F352" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
@@ -12034,7 +12034,7 @@
       </c>
       <c r="F353" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
@@ -12057,7 +12057,7 @@
       </c>
       <c r="F354" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
@@ -12080,7 +12080,7 @@
       </c>
       <c r="F355" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it\", \"ja</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
@@ -12103,7 +12103,7 @@
       </c>
       <c r="F356" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it\", \"ja\", \"ka</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
@@ -12126,7 +12126,7 @@
       </c>
       <c r="F357" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it\", \"ja\", \"ka\", \"km</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
@@ -12149,7 +12149,7 @@
       </c>
       <c r="F358" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it\", \"ja\", \"ka\", \"km\", \"ko</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
@@ -12172,7 +12172,7 @@
       </c>
       <c r="F359" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko,ku</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it\", \"ja\", \"ka\", \"km\", \"ko\", \"ku</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
@@ -12195,7 +12195,7 @@
       </c>
       <c r="F360" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko,ku,la</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it\", \"ja\", \"ka\", \"km\", \"ko\", \"ku\", \"la</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
@@ -12218,7 +12218,7 @@
       </c>
       <c r="F361" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko,ku,la,lt</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it\", \"ja\", \"ka\", \"km\", \"ko\", \"ku\", \"la\", \"lt</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
@@ -12241,7 +12241,7 @@
       </c>
       <c r="F362" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko,ku,la,lt,lv</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it\", \"ja\", \"ka\", \"km\", \"ko\", \"ku\", \"la\", \"lt\", \"lv</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
@@ -12264,7 +12264,7 @@
       </c>
       <c r="F363" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko,ku,la,lt,lv,mk</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it\", \"ja\", \"ka\", \"km\", \"ko\", \"ku\", \"la\", \"lt\", \"lv\", \"mk</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
@@ -12287,7 +12287,7 @@
       </c>
       <c r="F364" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko,ku,la,lt,lv,mk,ml</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it\", \"ja\", \"ka\", \"km\", \"ko\", \"ku\", \"la\", \"lt\", \"lv\", \"mk\", \"ml</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
@@ -12310,7 +12310,7 @@
       </c>
       <c r="F365" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko,ku,la,lt,lv,mk,ml,ms</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it\", \"ja\", \"ka\", \"km\", \"ko\", \"ku\", \"la\", \"lt\", \"lv\", \"mk\", \"ml\", \"ms</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
@@ -12333,7 +12333,7 @@
       </c>
       <c r="F366" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko,ku,la,lt,lv,mk,ml,ms,ne</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it\", \"ja\", \"ka\", \"km\", \"ko\", \"ku\", \"la\", \"lt\", \"lv\", \"mk\", \"ml\", \"ms\", \"ne</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
@@ -12356,7 +12356,7 @@
       </c>
       <c r="F367" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko,ku,la,lt,lv,mk,ml,ms,ne,nl</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it\", \"ja\", \"ka\", \"km\", \"ko\", \"ku\", \"la\", \"lt\", \"lv\", \"mk\", \"ml\", \"ms\", \"ne\", \"nl</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
@@ -12379,7 +12379,7 @@
       </c>
       <c r="F368" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko,ku,la,lt,lv,mk,ml,ms,ne,nl,no</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it\", \"ja\", \"ka\", \"km\", \"ko\", \"ku\", \"la\", \"lt\", \"lv\", \"mk\", \"ml\", \"ms\", \"ne\", \"nl\", \"no</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
@@ -12402,7 +12402,7 @@
       </c>
       <c r="F369" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko,ku,la,lt,lv,mk,ml,ms,ne,nl,no,oc</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it\", \"ja\", \"ka\", \"km\", \"ko\", \"ku\", \"la\", \"lt\", \"lv\", \"mk\", \"ml\", \"ms\", \"ne\", \"nl\", \"no\", \"oc</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
@@ -12425,7 +12425,7 @@
       </c>
       <c r="F370" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko,ku,la,lt,lv,mk,ml,ms,ne,nl,no,oc,pa</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it\", \"ja\", \"ka\", \"km\", \"ko\", \"ku\", \"la\", \"lt\", \"lv\", \"mk\", \"ml\", \"ms\", \"ne\", \"nl\", \"no\", \"oc\", \"pa</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
@@ -12448,7 +12448,7 @@
       </c>
       <c r="F371" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko,ku,la,lt,lv,mk,ml,ms,ne,nl,no,oc,pa,pl</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it\", \"ja\", \"ka\", \"km\", \"ko\", \"ku\", \"la\", \"lt\", \"lv\", \"mk\", \"ml\", \"ms\", \"ne\", \"nl\", \"no\", \"oc\", \"pa\", \"pl</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
@@ -12471,7 +12471,7 @@
       </c>
       <c r="F372" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko,ku,la,lt,lv,mk,ml,ms,ne,nl,no,oc,pa,pl,pt</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it\", \"ja\", \"ka\", \"km\", \"ko\", \"ku\", \"la\", \"lt\", \"lv\", \"mk\", \"ml\", \"ms\", \"ne\", \"nl\", \"no\", \"oc\", \"pa\", \"pl\", \"pt</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
@@ -12494,7 +12494,7 @@
       </c>
       <c r="F373" t="str">
         <f t="shared" si="17"/>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko,ku,la,lt,lv,mk,ml,ms,ne,nl,no,oc,pa,pl,pt,ro</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it\", \"ja\", \"ka\", \"km\", \"ko\", \"ku\", \"la\", \"lt\", \"lv\", \"mk\", \"ml\", \"ms\", \"ne\", \"nl\", \"no\", \"oc\", \"pa\", \"pl\", \"pt\", \"ro</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
@@ -12540,7 +12540,7 @@
       </c>
       <c r="F375" t="str">
         <f t="shared" si="17"/>
-        <v>ru,shn</v>
+        <v>ru\", \"shn</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="F376" t="str">
         <f t="shared" si="17"/>
-        <v>ru,shn,si</v>
+        <v>ru\", \"shn\", \"si</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
@@ -12586,7 +12586,7 @@
       </c>
       <c r="F377" t="str">
         <f t="shared" si="17"/>
-        <v>ru,shn,si,simple</v>
+        <v>ru\", \"shn\", \"si\", \"simple</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
@@ -12609,7 +12609,7 @@
       </c>
       <c r="F378" t="str">
         <f t="shared" si="17"/>
-        <v>ru,shn,si,simple,sk</v>
+        <v>ru\", \"shn\", \"si\", \"simple\", \"sk</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.2">
@@ -12632,7 +12632,7 @@
       </c>
       <c r="F379" t="str">
         <f t="shared" si="17"/>
-        <v>ru,shn,si,simple,sk,sl</v>
+        <v>ru\", \"shn\", \"si\", \"simple\", \"sk\", \"sl</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
@@ -12655,7 +12655,7 @@
       </c>
       <c r="F380" t="str">
         <f t="shared" si="17"/>
-        <v>ru,shn,si,simple,sk,sl,sq</v>
+        <v>ru\", \"shn\", \"si\", \"simple\", \"sk\", \"sl\", \"sq</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.2">
@@ -12678,7 +12678,7 @@
       </c>
       <c r="F381" t="str">
         <f t="shared" si="17"/>
-        <v>ru,shn,si,simple,sk,sl,sq,sr</v>
+        <v>ru\", \"shn\", \"si\", \"simple\", \"sk\", \"sl\", \"sq\", \"sr</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
@@ -12701,7 +12701,7 @@
       </c>
       <c r="F382" t="str">
         <f t="shared" si="17"/>
-        <v>ru,shn,si,simple,sk,sl,sq,sr,sv</v>
+        <v>ru\", \"shn\", \"si\", \"simple\", \"sk\", \"sl\", \"sq\", \"sr\", \"sv</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="F383" t="str">
         <f t="shared" si="17"/>
-        <v>ru,shn,si,simple,sk,sl,sq,sr,sv,ta</v>
+        <v>ru\", \"shn\", \"si\", \"simple\", \"sk\", \"sl\", \"sq\", \"sr\", \"sv\", \"ta</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.2">
@@ -12747,7 +12747,7 @@
       </c>
       <c r="F384" t="str">
         <f t="shared" si="17"/>
-        <v>ru,shn,si,simple,sk,sl,sq,sr,sv,ta,te</v>
+        <v>ru\", \"shn\", \"si\", \"simple\", \"sk\", \"sl\", \"sq\", \"sr\", \"sv\", \"ta\", \"te</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.2">
@@ -12770,7 +12770,7 @@
       </c>
       <c r="F385" t="str">
         <f t="shared" si="17"/>
-        <v>ru,shn,si,simple,sk,sl,sq,sr,sv,ta,te,tg</v>
+        <v>ru\", \"shn\", \"si\", \"simple\", \"sk\", \"sl\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"tg</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
@@ -12793,7 +12793,7 @@
       </c>
       <c r="F386" t="str">
         <f t="shared" si="17"/>
-        <v>ru,shn,si,simple,sk,sl,sq,sr,sv,ta,te,tg,th</v>
+        <v>ru\", \"shn\", \"si\", \"simple\", \"sk\", \"sl\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"tg\", \"th</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
@@ -12815,8 +12815,8 @@
         <v>14</v>
       </c>
       <c r="F387" t="str">
-        <f t="shared" si="17"/>
-        <v>ru,shn,si,simple,sk,sl,sq,sr,sv,ta,te,tg,th,tl</v>
+        <f t="shared" ref="F387:F450" si="20">IF(B386&lt;&gt;B387,D387,F386&amp;"\"", \"""&amp;D387)</f>
+        <v>ru\", \"shn\", \"si\", \"simple\", \"sk\", \"sl\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"tg\", \"th\", \"tl</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.2">
@@ -12838,8 +12838,8 @@
         <v>14</v>
       </c>
       <c r="F388" t="str">
-        <f t="shared" ref="F388:F451" si="20">IF(B387&lt;&gt;B388,D388,F387&amp;","&amp;D388)</f>
-        <v>ru,shn,si,simple,sk,sl,sq,sr,sv,ta,te,tg,th,tl,tr</v>
+        <f t="shared" si="20"/>
+        <v>ru\", \"shn\", \"si\", \"simple\", \"sk\", \"sl\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"tg\", \"th\", \"tl\", \"tr</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
@@ -12862,7 +12862,7 @@
       </c>
       <c r="F389" t="str">
         <f t="shared" si="20"/>
-        <v>ru,shn,si,simple,sk,sl,sq,sr,sv,ta,te,tg,th,tl,tr,tt</v>
+        <v>ru\", \"shn\", \"si\", \"simple\", \"sk\", \"sl\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"tg\", \"th\", \"tl\", \"tr\", \"tt</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
@@ -12885,7 +12885,7 @@
       </c>
       <c r="F390" t="str">
         <f t="shared" si="20"/>
-        <v>ru,shn,si,simple,sk,sl,sq,sr,sv,ta,te,tg,th,tl,tr,tt,uk</v>
+        <v>ru\", \"shn\", \"si\", \"simple\", \"sk\", \"sl\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"tg\", \"th\", \"tl\", \"tr\", \"tt\", \"uk</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
@@ -12908,7 +12908,7 @@
       </c>
       <c r="F391" t="str">
         <f t="shared" si="20"/>
-        <v>ru,shn,si,simple,sk,sl,sq,sr,sv,ta,te,tg,th,tl,tr,tt,uk,ur</v>
+        <v>ru\", \"shn\", \"si\", \"simple\", \"sk\", \"sl\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"tg\", \"th\", \"tl\", \"tr\", \"tt\", \"uk\", \"ur</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
@@ -12931,7 +12931,7 @@
       </c>
       <c r="F392" t="str">
         <f t="shared" si="20"/>
-        <v>ru,shn,si,simple,sk,sl,sq,sr,sv,ta,te,tg,th,tl,tr,tt,uk,ur,vi</v>
+        <v>ru\", \"shn\", \"si\", \"simple\", \"sk\", \"sl\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"tg\", \"th\", \"tl\", \"tr\", \"tt\", \"uk\", \"ur\", \"vi</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
@@ -12954,7 +12954,7 @@
       </c>
       <c r="F393" t="str">
         <f t="shared" si="20"/>
-        <v>ru,shn,si,simple,sk,sl,sq,sr,sv,ta,te,tg,th,tl,tr,tt,uk,ur,vi,zh</v>
+        <v>ru\", \"shn\", \"si\", \"simple\", \"sk\", \"sl\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"tg\", \"th\", \"tl\", \"tr\", \"tt\", \"uk\", \"ur\", \"vi\", \"zh</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="F394" t="str">
         <f t="shared" si="20"/>
-        <v>ru,shn,si,simple,sk,sl,sq,sr,sv,ta,te,tg,th,tl,tr,tt,uk,ur,vi,zh,zh-min-nan</v>
+        <v>ru\", \"shn\", \"si\", \"simple\", \"sk\", \"sl\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"tg\", \"th\", \"tl\", \"tr\", \"tt\", \"uk\", \"ur\", \"vi\", \"zh\", \"zh-min-nan</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.2">
@@ -13023,7 +13023,7 @@
       </c>
       <c r="F396" t="str">
         <f t="shared" si="20"/>
-        <v>ae,az</v>
+        <v>ae\", \"az</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.2">
@@ -13046,7 +13046,7 @@
       </c>
       <c r="F397" t="str">
         <f t="shared" si="20"/>
-        <v>ae,az,br</v>
+        <v>ae\", \"az\", \"br</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
@@ -13069,7 +13069,7 @@
       </c>
       <c r="F398" t="str">
         <f t="shared" si="20"/>
-        <v>ae,az,br,de-labs</v>
+        <v>ae\", \"az\", \"br\", \"de-labs</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.2">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="F399" t="str">
         <f t="shared" si="20"/>
-        <v>ae,az,br,de-labs,en-labs</v>
+        <v>ae\", \"az\", \"br\", \"de-labs\", \"en-labs</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.2">
@@ -13115,7 +13115,7 @@
       </c>
       <c r="F400" t="str">
         <f t="shared" si="20"/>
-        <v>ae,az,br,de-labs,en-labs,flaggedrevs-labs</v>
+        <v>ae\", \"az\", \"br\", \"de-labs\", \"en-labs\", \"flaggedrevs-labs</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.2">
@@ -13138,7 +13138,7 @@
       </c>
       <c r="F401" t="str">
         <f t="shared" si="20"/>
-        <v>ae,az,br,de-labs,en-labs,flaggedrevs-labs,ge</v>
+        <v>ae\", \"az\", \"br\", \"de-labs\", \"en-labs\", \"flaggedrevs-labs\", \"ge</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.2">
@@ -13161,7 +13161,7 @@
       </c>
       <c r="F402" t="str">
         <f t="shared" si="20"/>
-        <v>ae,az,br,de-labs,en-labs,flaggedrevs-labs,ge,id</v>
+        <v>ae\", \"az\", \"br\", \"de-labs\", \"en-labs\", \"flaggedrevs-labs\", \"ge\", \"id</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.2">
@@ -13184,7 +13184,7 @@
       </c>
       <c r="F403" t="str">
         <f t="shared" si="20"/>
-        <v>ae,az,br,de-labs,en-labs,flaggedrevs-labs,ge,id,liquidthreads-labs</v>
+        <v>ae\", \"az\", \"br\", \"de-labs\", \"en-labs\", \"flaggedrevs-labs\", \"ge\", \"id\", \"liquidthreads-labs</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.2">
@@ -13207,7 +13207,7 @@
       </c>
       <c r="F404" t="str">
         <f t="shared" si="20"/>
-        <v>ae,az,br,de-labs,en-labs,flaggedrevs-labs,ge,id,liquidthreads-labs,pl</v>
+        <v>ae\", \"az\", \"br\", \"de-labs\", \"en-labs\", \"flaggedrevs-labs\", \"ge\", \"id\", \"liquidthreads-labs\", \"pl</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.2">
@@ -13230,7 +13230,7 @@
       </c>
       <c r="F405" t="str">
         <f t="shared" si="20"/>
-        <v>ae,az,br,de-labs,en-labs,flaggedrevs-labs,ge,id,liquidthreads-labs,pl,readerfeedback-labs</v>
+        <v>ae\", \"az\", \"br\", \"de-labs\", \"en-labs\", \"flaggedrevs-labs\", \"ge\", \"id\", \"liquidthreads-labs\", \"pl\", \"readerfeedback-labs</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.2">
@@ -13253,7 +13253,7 @@
       </c>
       <c r="F406" t="str">
         <f t="shared" si="20"/>
-        <v>ae,az,br,de-labs,en-labs,flaggedrevs-labs,ge,id,liquidthreads-labs,pl,readerfeedback-labs,ru</v>
+        <v>ae\", \"az\", \"br\", \"de-labs\", \"en-labs\", \"flaggedrevs-labs\", \"ge\", \"id\", \"liquidthreads-labs\", \"pl\", \"readerfeedback-labs\", \"ru</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.2">
@@ -13276,7 +13276,7 @@
       </c>
       <c r="F407" t="str">
         <f t="shared" si="20"/>
-        <v>ae,az,br,de-labs,en-labs,flaggedrevs-labs,ge,id,liquidthreads-labs,pl,readerfeedback-labs,ru,ua</v>
+        <v>ae\", \"az\", \"br\", \"de-labs\", \"en-labs\", \"flaggedrevs-labs\", \"ge\", \"id\", \"liquidthreads-labs\", \"pl\", \"readerfeedback-labs\", \"ru\", \"ua</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.2">
@@ -13299,7 +13299,7 @@
       </c>
       <c r="F408" t="str">
         <f t="shared" si="20"/>
-        <v>ae,az,br,de-labs,en-labs,flaggedrevs-labs,ge,id,liquidthreads-labs,pl,readerfeedback-labs,ru,ua,uk</v>
+        <v>ae\", \"az\", \"br\", \"de-labs\", \"en-labs\", \"flaggedrevs-labs\", \"ge\", \"id\", \"liquidthreads-labs\", \"pl\", \"readerfeedback-labs\", \"ru\", \"ua\", \"uk</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.2">
@@ -13345,7 +13345,7 @@
       </c>
       <c r="F410" t="str">
         <f t="shared" si="20"/>
-        <v>ar,cs</v>
+        <v>ar\", \"cs</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.2">
@@ -13368,7 +13368,7 @@
       </c>
       <c r="F411" t="str">
         <f t="shared" si="20"/>
-        <v>ar,cs,de</v>
+        <v>ar\", \"cs\", \"de</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.2">
@@ -13391,7 +13391,7 @@
       </c>
       <c r="F412" t="str">
         <f t="shared" si="20"/>
-        <v>ar,cs,de,el</v>
+        <v>ar\", \"cs\", \"de\", \"el</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.2">
@@ -13414,7 +13414,7 @@
       </c>
       <c r="F413" t="str">
         <f t="shared" si="20"/>
-        <v>ar,cs,de,el,en</v>
+        <v>ar\", \"cs\", \"de\", \"el\", \"en</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.2">
@@ -13437,7 +13437,7 @@
       </c>
       <c r="F414" t="str">
         <f t="shared" si="20"/>
-        <v>ar,cs,de,el,en,es</v>
+        <v>ar\", \"cs\", \"de\", \"el\", \"en\", \"es</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.2">
@@ -13460,7 +13460,7 @@
       </c>
       <c r="F415" t="str">
         <f t="shared" si="20"/>
-        <v>ar,cs,de,el,en,es,fa</v>
+        <v>ar\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fa</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.2">
@@ -13483,7 +13483,7 @@
       </c>
       <c r="F416" t="str">
         <f t="shared" si="20"/>
-        <v>ar,cs,de,el,en,es,fa,fi</v>
+        <v>ar\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fa\", \"fi</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.2">
@@ -13506,7 +13506,7 @@
       </c>
       <c r="F417" t="str">
         <f t="shared" si="20"/>
-        <v>ar,cs,de,el,en,es,fa,fi,fr</v>
+        <v>ar\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fa\", \"fi\", \"fr</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.2">
@@ -13529,7 +13529,7 @@
       </c>
       <c r="F418" t="str">
         <f t="shared" si="20"/>
-        <v>ar,cs,de,el,en,es,fa,fi,fr,he</v>
+        <v>ar\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fa\", \"fi\", \"fr\", \"he</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.2">
@@ -13552,7 +13552,7 @@
       </c>
       <c r="F419" t="str">
         <f t="shared" si="20"/>
-        <v>ar,cs,de,el,en,es,fa,fi,fr,he,hu</v>
+        <v>ar\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fa\", \"fi\", \"fr\", \"he\", \"hu</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.2">
@@ -13575,7 +13575,7 @@
       </c>
       <c r="F420" t="str">
         <f t="shared" si="20"/>
-        <v>ar,cs,de,el,en,es,fa,fi,fr,he,hu,it</v>
+        <v>ar\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fa\", \"fi\", \"fr\", \"he\", \"hu\", \"it</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.2">
@@ -13598,7 +13598,7 @@
       </c>
       <c r="F421" t="str">
         <f t="shared" si="20"/>
-        <v>ar,cs,de,el,en,es,fa,fi,fr,he,hu,it,ja</v>
+        <v>ar\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fa\", \"fi\", \"fr\", \"he\", \"hu\", \"it\", \"ja</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.2">
@@ -13621,7 +13621,7 @@
       </c>
       <c r="F422" t="str">
         <f t="shared" si="20"/>
-        <v>ar,cs,de,el,en,es,fa,fi,fr,he,hu,it,ja,ko</v>
+        <v>ar\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fa\", \"fi\", \"fr\", \"he\", \"hu\", \"it\", \"ja\", \"ko</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.2">
@@ -13644,7 +13644,7 @@
       </c>
       <c r="F423" t="str">
         <f t="shared" si="20"/>
-        <v>ar,cs,de,el,en,es,fa,fi,fr,he,hu,it,ja,ko,pl</v>
+        <v>ar\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fa\", \"fi\", \"fr\", \"he\", \"hu\", \"it\", \"ja\", \"ko\", \"pl</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.2">
@@ -13667,7 +13667,7 @@
       </c>
       <c r="F424" t="str">
         <f t="shared" si="20"/>
-        <v>ar,cs,de,el,en,es,fa,fi,fr,he,hu,it,ja,ko,pl,pt</v>
+        <v>ar\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fa\", \"fi\", \"fr\", \"he\", \"hu\", \"it\", \"ja\", \"ko\", \"pl\", \"pt</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.2">
@@ -13690,7 +13690,7 @@
       </c>
       <c r="F425" t="str">
         <f t="shared" si="20"/>
-        <v>ar,cs,de,el,en,es,fa,fi,fr,he,hu,it,ja,ko,pl,pt,ro</v>
+        <v>ar\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fa\", \"fi\", \"fr\", \"he\", \"hu\", \"it\", \"ja\", \"ko\", \"pl\", \"pt\", \"ro</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.2">
@@ -13713,7 +13713,7 @@
       </c>
       <c r="F426" t="str">
         <f t="shared" si="20"/>
-        <v>ar,cs,de,el,en,es,fa,fi,fr,he,hu,it,ja,ko,pl,pt,ro,ru</v>
+        <v>ar\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fa\", \"fi\", \"fr\", \"he\", \"hu\", \"it\", \"ja\", \"ko\", \"pl\", \"pt\", \"ro\", \"ru</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.2">
@@ -13736,7 +13736,7 @@
       </c>
       <c r="F427" t="str">
         <f t="shared" si="20"/>
-        <v>ar,cs,de,el,en,es,fa,fi,fr,he,hu,it,ja,ko,pl,pt,ro,ru,shn</v>
+        <v>ar\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fa\", \"fi\", \"fr\", \"he\", \"hu\", \"it\", \"ja\", \"ko\", \"pl\", \"pt\", \"ro\", \"ru\", \"shn</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.2">
@@ -13759,7 +13759,7 @@
       </c>
       <c r="F428" t="str">
         <f t="shared" si="20"/>
-        <v>ar,cs,de,el,en,es,fa,fi,fr,he,hu,it,ja,ko,pl,pt,ro,ru,shn,sr</v>
+        <v>ar\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fa\", \"fi\", \"fr\", \"he\", \"hu\", \"it\", \"ja\", \"ko\", \"pl\", \"pt\", \"ro\", \"ru\", \"shn\", \"sr</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.2">
@@ -13782,7 +13782,7 @@
       </c>
       <c r="F429" t="str">
         <f t="shared" si="20"/>
-        <v>ar,cs,de,el,en,es,fa,fi,fr,he,hu,it,ja,ko,pl,pt,ro,ru,shn,sr,ta</v>
+        <v>ar\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fa\", \"fi\", \"fr\", \"he\", \"hu\", \"it\", \"ja\", \"ko\", \"pl\", \"pt\", \"ro\", \"ru\", \"shn\", \"sr\", \"ta</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.2">
@@ -13805,7 +13805,7 @@
       </c>
       <c r="F430" t="str">
         <f t="shared" si="20"/>
-        <v>ar,cs,de,el,en,es,fa,fi,fr,he,hu,it,ja,ko,pl,pt,ro,ru,shn,sr,ta,tr</v>
+        <v>ar\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fa\", \"fi\", \"fr\", \"he\", \"hu\", \"it\", \"ja\", \"ko\", \"pl\", \"pt\", \"ro\", \"ru\", \"shn\", \"sr\", \"ta\", \"tr</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.2">
@@ -13828,7 +13828,7 @@
       </c>
       <c r="F431" t="str">
         <f t="shared" si="20"/>
-        <v>ar,cs,de,el,en,es,fa,fi,fr,he,hu,it,ja,ko,pl,pt,ro,ru,shn,sr,ta,tr,uk</v>
+        <v>ar\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fa\", \"fi\", \"fr\", \"he\", \"hu\", \"it\", \"ja\", \"ko\", \"pl\", \"pt\", \"ro\", \"ru\", \"shn\", \"sr\", \"ta\", \"tr\", \"uk</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.2">
@@ -13851,7 +13851,7 @@
       </c>
       <c r="F432" t="str">
         <f t="shared" si="20"/>
-        <v>ar,cs,de,el,en,es,fa,fi,fr,he,hu,it,ja,ko,pl,pt,ro,ru,shn,sr,ta,tr,uk,zh</v>
+        <v>ar\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fa\", \"fi\", \"fr\", \"he\", \"hu\", \"it\", \"ja\", \"ko\", \"pl\", \"pt\", \"ro\", \"ru\", \"shn\", \"sr\", \"ta\", \"tr\", \"uk\", \"zh</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.2">
@@ -13897,7 +13897,7 @@
       </c>
       <c r="F434" t="str">
         <f t="shared" si="20"/>
-        <v>ar,as</v>
+        <v>ar\", \"as</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.2">
@@ -13920,7 +13920,7 @@
       </c>
       <c r="F435" t="str">
         <f t="shared" si="20"/>
-        <v>ar,as,az</v>
+        <v>ar\", \"as\", \"az</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.2">
@@ -13943,7 +13943,7 @@
       </c>
       <c r="F436" t="str">
         <f t="shared" si="20"/>
-        <v>ar,as,az,bg</v>
+        <v>ar\", \"as\", \"az\", \"bg</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.2">
@@ -13966,7 +13966,7 @@
       </c>
       <c r="F437" t="str">
         <f t="shared" si="20"/>
-        <v>ar,as,az,bg,bjn</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.2">
@@ -13989,7 +13989,7 @@
       </c>
       <c r="F438" t="str">
         <f t="shared" si="20"/>
-        <v>ar,as,az,bg,bjn,br</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.2">
@@ -14012,7 +14012,7 @@
       </c>
       <c r="F439" t="str">
         <f t="shared" si="20"/>
-        <v>ar,as,az,bg,bjn,br,ca</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.2">
@@ -14035,7 +14035,7 @@
       </c>
       <c r="F440" t="str">
         <f t="shared" si="20"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.2">
@@ -14058,7 +14058,7 @@
       </c>
       <c r="F441" t="str">
         <f t="shared" si="20"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.2">
@@ -14081,7 +14081,7 @@
       </c>
       <c r="F442" t="str">
         <f t="shared" si="20"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.2">
@@ -14104,7 +14104,7 @@
       </c>
       <c r="F443" t="str">
         <f t="shared" si="20"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.2">
@@ -14127,7 +14127,7 @@
       </c>
       <c r="F444" t="str">
         <f t="shared" si="20"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.2">
@@ -14150,7 +14150,7 @@
       </c>
       <c r="F445" t="str">
         <f t="shared" si="20"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.2">
@@ -14173,7 +14173,7 @@
       </c>
       <c r="F446" t="str">
         <f t="shared" si="20"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.2">
@@ -14196,7 +14196,7 @@
       </c>
       <c r="F447" t="str">
         <f t="shared" si="20"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.2">
@@ -14219,7 +14219,7 @@
       </c>
       <c r="F448" t="str">
         <f t="shared" si="20"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.2">
@@ -14242,7 +14242,7 @@
       </c>
       <c r="F449" t="str">
         <f t="shared" si="20"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.2">
@@ -14265,7 +14265,7 @@
       </c>
       <c r="F450" t="str">
         <f t="shared" si="20"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.2">
@@ -14287,8 +14287,8 @@
         <v>38</v>
       </c>
       <c r="F451" t="str">
-        <f t="shared" si="20"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he</v>
+        <f t="shared" ref="F451:F514" si="23">IF(B450&lt;&gt;B451,D451,F450&amp;"\"", \"""&amp;D451)</f>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.2">
@@ -14310,8 +14310,8 @@
         <v>38</v>
       </c>
       <c r="F452" t="str">
-        <f t="shared" ref="F452:F515" si="23">IF(B451&lt;&gt;B452,D452,F451&amp;","&amp;D452)</f>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi</v>
+        <f t="shared" si="23"/>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.2">
@@ -14334,7 +14334,7 @@
       </c>
       <c r="F453" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.2">
@@ -14357,7 +14357,7 @@
       </c>
       <c r="F454" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu\", \"it</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.2">
@@ -14380,7 +14380,7 @@
       </c>
       <c r="F455" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu\", \"it\", \"ja</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.2">
@@ -14403,7 +14403,7 @@
       </c>
       <c r="F456" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu\", \"it\", \"ja\", \"ka</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.2">
@@ -14426,7 +14426,7 @@
       </c>
       <c r="F457" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka,ko</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu\", \"it\", \"ja\", \"ka\", \"ko</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.2">
@@ -14449,7 +14449,7 @@
       </c>
       <c r="F458" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka,ko,no</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu\", \"it\", \"ja\", \"ka\", \"ko\", \"no</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.2">
@@ -14472,7 +14472,7 @@
       </c>
       <c r="F459" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka,ko,no,pl</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu\", \"it\", \"ja\", \"ka\", \"ko\", \"no\", \"pl</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.2">
@@ -14495,7 +14495,7 @@
       </c>
       <c r="F460" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka,ko,no,pl,pt</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu\", \"it\", \"ja\", \"ka\", \"ko\", \"no\", \"pl\", \"pt</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.2">
@@ -14518,7 +14518,7 @@
       </c>
       <c r="F461" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka,ko,no,pl,pt,ru</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu\", \"it\", \"ja\", \"ka\", \"ko\", \"no\", \"pl\", \"pt\", \"ru</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.2">
@@ -14541,7 +14541,7 @@
       </c>
       <c r="F462" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka,ko,no,pl,pt,ru,simple</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu\", \"it\", \"ja\", \"ka\", \"ko\", \"no\", \"pl\", \"pt\", \"ru\", \"simple</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.2">
@@ -14564,7 +14564,7 @@
       </c>
       <c r="F463" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka,ko,no,pl,pt,ru,simple,sl</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu\", \"it\", \"ja\", \"ka\", \"ko\", \"no\", \"pl\", \"pt\", \"ru\", \"simple\", \"sl</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.2">
@@ -14587,7 +14587,7 @@
       </c>
       <c r="F464" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka,ko,no,pl,pt,ru,simple,sl,sr</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu\", \"it\", \"ja\", \"ka\", \"ko\", \"no\", \"pl\", \"pt\", \"ru\", \"simple\", \"sl\", \"sr</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.2">
@@ -14610,7 +14610,7 @@
       </c>
       <c r="F465" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka,ko,no,pl,pt,ru,simple,sl,sr,su</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu\", \"it\", \"ja\", \"ka\", \"ko\", \"no\", \"pl\", \"pt\", \"ru\", \"simple\", \"sl\", \"sr\", \"su</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.2">
@@ -14633,7 +14633,7 @@
       </c>
       <c r="F466" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka,ko,no,pl,pt,ru,simple,sl,sr,su,ta</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu\", \"it\", \"ja\", \"ka\", \"ko\", \"no\", \"pl\", \"pt\", \"ru\", \"simple\", \"sl\", \"sr\", \"su\", \"ta</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.2">
@@ -14656,7 +14656,7 @@
       </c>
       <c r="F467" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka,ko,no,pl,pt,ru,simple,sl,sr,su,ta,th</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu\", \"it\", \"ja\", \"ka\", \"ko\", \"no\", \"pl\", \"pt\", \"ru\", \"simple\", \"sl\", \"sr\", \"su\", \"ta\", \"th</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.2">
@@ -14679,7 +14679,7 @@
       </c>
       <c r="F468" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka,ko,no,pl,pt,ru,simple,sl,sr,su,ta,th,tl</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu\", \"it\", \"ja\", \"ka\", \"ko\", \"no\", \"pl\", \"pt\", \"ru\", \"simple\", \"sl\", \"sr\", \"su\", \"ta\", \"th\", \"tl</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.2">
@@ -14702,7 +14702,7 @@
       </c>
       <c r="F469" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka,ko,no,pl,pt,ru,simple,sl,sr,su,ta,th,tl,tr</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu\", \"it\", \"ja\", \"ka\", \"ko\", \"no\", \"pl\", \"pt\", \"ru\", \"simple\", \"sl\", \"sr\", \"su\", \"ta\", \"th\", \"tl\", \"tr</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.2">
@@ -14725,7 +14725,7 @@
       </c>
       <c r="F470" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka,ko,no,pl,pt,ru,simple,sl,sr,su,ta,th,tl,tr,uk</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu\", \"it\", \"ja\", \"ka\", \"ko\", \"no\", \"pl\", \"pt\", \"ru\", \"simple\", \"sl\", \"sr\", \"su\", \"ta\", \"th\", \"tl\", \"tr\", \"uk</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.2">
@@ -14748,7 +14748,7 @@
       </c>
       <c r="F471" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka,ko,no,pl,pt,ru,simple,sl,sr,su,ta,th,tl,tr,uk,uz</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu\", \"it\", \"ja\", \"ka\", \"ko\", \"no\", \"pl\", \"pt\", \"ru\", \"simple\", \"sl\", \"sr\", \"su\", \"ta\", \"th\", \"tl\", \"tr\", \"uk\", \"uz</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.2">
@@ -14771,7 +14771,7 @@
       </c>
       <c r="F472" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka,ko,no,pl,pt,ru,simple,sl,sr,su,ta,th,tl,tr,uk,uz,vi</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu\", \"it\", \"ja\", \"ka\", \"ko\", \"no\", \"pl\", \"pt\", \"ru\", \"simple\", \"sl\", \"sr\", \"su\", \"ta\", \"th\", \"tl\", \"tr\", \"uk\", \"uz\", \"vi</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.2">
@@ -14794,7 +14794,7 @@
       </c>
       <c r="F473" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka,ko,no,pl,pt,ru,simple,sl,sr,su,ta,th,tl,tr,uk,uz,vi,zh</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu\", \"it\", \"ja\", \"ka\", \"ko\", \"no\", \"pl\", \"pt\", \"ru\", \"simple\", \"sl\", \"sr\", \"su\", \"ta\", \"th\", \"tl\", \"tr\", \"uk\", \"uz\", \"vi\", \"zh</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.2">
@@ -14840,7 +14840,7 @@
       </c>
       <c r="F475" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as</v>
+        <v>ar\", \"as</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.2">
@@ -14863,7 +14863,7 @@
       </c>
       <c r="F476" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az</v>
+        <v>ar\", \"as\", \"az</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.2">
@@ -14886,7 +14886,7 @@
       </c>
       <c r="F477" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be</v>
+        <v>ar\", \"as\", \"az\", \"be</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.2">
@@ -14909,7 +14909,7 @@
       </c>
       <c r="F478" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.2">
@@ -14932,7 +14932,7 @@
       </c>
       <c r="F479" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.2">
@@ -14955,7 +14955,7 @@
       </c>
       <c r="F480" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.2">
@@ -14978,7 +14978,7 @@
       </c>
       <c r="F481" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.2">
@@ -15001,7 +15001,7 @@
       </c>
       <c r="F482" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.2">
@@ -15024,7 +15024,7 @@
       </c>
       <c r="F483" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.2">
@@ -15047,7 +15047,7 @@
       </c>
       <c r="F484" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.2">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="F485" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.2">
@@ -15093,7 +15093,7 @@
       </c>
       <c r="F486" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.2">
@@ -15116,7 +15116,7 @@
       </c>
       <c r="F487" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.2">
@@ -15139,7 +15139,7 @@
       </c>
       <c r="F488" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.2">
@@ -15162,7 +15162,7 @@
       </c>
       <c r="F489" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.2">
@@ -15185,7 +15185,7 @@
       </c>
       <c r="F490" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.2">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="F491" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.2">
@@ -15231,7 +15231,7 @@
       </c>
       <c r="F492" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.2">
@@ -15254,7 +15254,7 @@
       </c>
       <c r="F493" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.2">
@@ -15277,7 +15277,7 @@
       </c>
       <c r="F494" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.2">
@@ -15300,7 +15300,7 @@
       </c>
       <c r="F495" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.2">
@@ -15323,7 +15323,7 @@
       </c>
       <c r="F496" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.2">
@@ -15346,7 +15346,7 @@
       </c>
       <c r="F497" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.2">
@@ -15369,7 +15369,7 @@
       </c>
       <c r="F498" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.2">
@@ -15392,7 +15392,7 @@
       </c>
       <c r="F499" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.2">
@@ -15415,7 +15415,7 @@
       </c>
       <c r="F500" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.2">
@@ -15438,7 +15438,7 @@
       </c>
       <c r="F501" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.2">
@@ -15461,7 +15461,7 @@
       </c>
       <c r="F502" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.2">
@@ -15484,7 +15484,7 @@
       </c>
       <c r="F503" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.2">
@@ -15507,7 +15507,7 @@
       </c>
       <c r="F504" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it\", \"ja</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.2">
@@ -15530,7 +15530,7 @@
       </c>
       <c r="F505" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it\", \"ja\", \"jv</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.2">
@@ -15553,7 +15553,7 @@
       </c>
       <c r="F506" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it\", \"ja\", \"jv\", \"ka</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.2">
@@ -15576,7 +15576,7 @@
       </c>
       <c r="F507" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it\", \"ja\", \"jv\", \"ka\", \"kn</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.2">
@@ -15599,7 +15599,7 @@
       </c>
       <c r="F508" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn,ko</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it\", \"ja\", \"jv\", \"ka\", \"kn\", \"ko</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.2">
@@ -15622,7 +15622,7 @@
       </c>
       <c r="F509" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn,ko,la</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it\", \"ja\", \"jv\", \"ka\", \"kn\", \"ko\", \"la</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.2">
@@ -15645,7 +15645,7 @@
       </c>
       <c r="F510" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn,ko,la,lij</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it\", \"ja\", \"jv\", \"ka\", \"kn\", \"ko\", \"la\", \"lij</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.2">
@@ -15668,7 +15668,7 @@
       </c>
       <c r="F511" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn,ko,la,lij,mk</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it\", \"ja\", \"jv\", \"ka\", \"kn\", \"ko\", \"la\", \"lij\", \"mk</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.2">
@@ -15691,7 +15691,7 @@
       </c>
       <c r="F512" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn,ko,la,lij,mk,ml</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it\", \"ja\", \"jv\", \"ka\", \"kn\", \"ko\", \"la\", \"lij\", \"mk\", \"ml</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.2">
@@ -15714,7 +15714,7 @@
       </c>
       <c r="F513" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn,ko,la,lij,mk,ml,mr</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it\", \"ja\", \"jv\", \"ka\", \"kn\", \"ko\", \"la\", \"lij\", \"mk\", \"ml\", \"mr</v>
       </c>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.2">
@@ -15737,7 +15737,7 @@
       </c>
       <c r="F514" t="str">
         <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn,ko,la,lij,mk,ml,mr,ms</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it\", \"ja\", \"jv\", \"ka\", \"kn\", \"ko\", \"la\", \"lij\", \"mk\", \"ml\", \"mr\", \"ms</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.2">
@@ -15759,8 +15759,8 @@
         <v>40</v>
       </c>
       <c r="F515" t="str">
-        <f t="shared" si="23"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn,ko,la,lij,mk,ml,mr,ms,nap</v>
+        <f t="shared" ref="F515:F578" si="26">IF(B514&lt;&gt;B515,D515,F514&amp;"\"", \"""&amp;D515)</f>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it\", \"ja\", \"jv\", \"ka\", \"kn\", \"ko\", \"la\", \"lij\", \"mk\", \"ml\", \"mr\", \"ms\", \"nap</v>
       </c>
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.2">
@@ -15782,8 +15782,8 @@
         <v>40</v>
       </c>
       <c r="F516" t="str">
-        <f t="shared" ref="F516:F579" si="26">IF(B515&lt;&gt;B516,D516,F515&amp;","&amp;D516)</f>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn,ko,la,lij,mk,ml,mr,ms,nap,nl</v>
+        <f t="shared" si="26"/>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it\", \"ja\", \"jv\", \"ka\", \"kn\", \"ko\", \"la\", \"lij\", \"mk\", \"ml\", \"mr\", \"ms\", \"nap\", \"nl</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.2">
@@ -15806,7 +15806,7 @@
       </c>
       <c r="F517" t="str">
         <f t="shared" si="26"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn,ko,la,lij,mk,ml,mr,ms,nap,nl,no</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it\", \"ja\", \"jv\", \"ka\", \"kn\", \"ko\", \"la\", \"lij\", \"mk\", \"ml\", \"mr\", \"ms\", \"nap\", \"nl\", \"no</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.2">
@@ -15829,7 +15829,7 @@
       </c>
       <c r="F518" t="str">
         <f t="shared" si="26"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn,ko,la,lij,mk,ml,mr,ms,nap,nl,no,pa</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it\", \"ja\", \"jv\", \"ka\", \"kn\", \"ko\", \"la\", \"lij\", \"mk\", \"ml\", \"mr\", \"ms\", \"nap\", \"nl\", \"no\", \"pa</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.2">
@@ -15852,7 +15852,7 @@
       </c>
       <c r="F519" t="str">
         <f t="shared" si="26"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn,ko,la,lij,mk,ml,mr,ms,nap,nl,no,pa,pl</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it\", \"ja\", \"jv\", \"ka\", \"kn\", \"ko\", \"la\", \"lij\", \"mk\", \"ml\", \"mr\", \"ms\", \"nap\", \"nl\", \"no\", \"pa\", \"pl</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.2">
@@ -15875,7 +15875,7 @@
       </c>
       <c r="F520" t="str">
         <f t="shared" si="26"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn,ko,la,lij,mk,ml,mr,ms,nap,nl,no,pa,pl,pt</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it\", \"ja\", \"jv\", \"ka\", \"kn\", \"ko\", \"la\", \"lij\", \"mk\", \"ml\", \"mr\", \"ms\", \"nap\", \"nl\", \"no\", \"pa\", \"pl\", \"pt</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.2">
@@ -15898,7 +15898,7 @@
       </c>
       <c r="F521" t="str">
         <f t="shared" si="26"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn,ko,la,lij,mk,ml,mr,ms,nap,nl,no,pa,pl,pt,ro</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it\", \"ja\", \"jv\", \"ka\", \"kn\", \"ko\", \"la\", \"lij\", \"mk\", \"ml\", \"mr\", \"ms\", \"nap\", \"nl\", \"no\", \"pa\", \"pl\", \"pt\", \"ro</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.2">
@@ -15921,7 +15921,7 @@
       </c>
       <c r="F522" t="str">
         <f t="shared" si="26"/>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn,ko,la,lij,mk,ml,mr,ms,nap,nl,no,pa,pl,pt,ro,ru</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it\", \"ja\", \"jv\", \"ka\", \"kn\", \"ko\", \"la\", \"lij\", \"mk\", \"ml\", \"mr\", \"ms\", \"nap\", \"nl\", \"no\", \"pa\", \"pl\", \"pt\", \"ro\", \"ru</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.2">
@@ -15967,7 +15967,7 @@
       </c>
       <c r="F524" t="str">
         <f t="shared" si="26"/>
-        <v>sa,sl</v>
+        <v>sa\", \"sl</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.2">
@@ -15990,7 +15990,7 @@
       </c>
       <c r="F525" t="str">
         <f t="shared" si="26"/>
-        <v>sa,sl,sr</v>
+        <v>sa\", \"sl\", \"sr</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.2">
@@ -16013,7 +16013,7 @@
       </c>
       <c r="F526" t="str">
         <f t="shared" si="26"/>
-        <v>sa,sl,sr,su</v>
+        <v>sa\", \"sl\", \"sr\", \"su</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.2">
@@ -16036,7 +16036,7 @@
       </c>
       <c r="F527" t="str">
         <f t="shared" si="26"/>
-        <v>sa,sl,sr,su,sv</v>
+        <v>sa\", \"sl\", \"sr\", \"su\", \"sv</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.2">
@@ -16059,7 +16059,7 @@
       </c>
       <c r="F528" t="str">
         <f t="shared" si="26"/>
-        <v>sa,sl,sr,su,sv,ta</v>
+        <v>sa\", \"sl\", \"sr\", \"su\", \"sv\", \"ta</v>
       </c>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.2">
@@ -16082,7 +16082,7 @@
       </c>
       <c r="F529" t="str">
         <f t="shared" si="26"/>
-        <v>sa,sl,sr,su,sv,ta,tcy</v>
+        <v>sa\", \"sl\", \"sr\", \"su\", \"sv\", \"ta\", \"tcy</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.2">
@@ -16105,7 +16105,7 @@
       </c>
       <c r="F530" t="str">
         <f t="shared" si="26"/>
-        <v>sa,sl,sr,su,sv,ta,tcy,te</v>
+        <v>sa\", \"sl\", \"sr\", \"su\", \"sv\", \"ta\", \"tcy\", \"te</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.2">
@@ -16128,7 +16128,7 @@
       </c>
       <c r="F531" t="str">
         <f t="shared" si="26"/>
-        <v>sa,sl,sr,su,sv,ta,tcy,te,th</v>
+        <v>sa\", \"sl\", \"sr\", \"su\", \"sv\", \"ta\", \"tcy\", \"te\", \"th</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.2">
@@ -16151,7 +16151,7 @@
       </c>
       <c r="F532" t="str">
         <f t="shared" si="26"/>
-        <v>sa,sl,sr,su,sv,ta,tcy,te,th,tr</v>
+        <v>sa\", \"sl\", \"sr\", \"su\", \"sv\", \"ta\", \"tcy\", \"te\", \"th\", \"tr</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.2">
@@ -16174,7 +16174,7 @@
       </c>
       <c r="F533" t="str">
         <f t="shared" si="26"/>
-        <v>sa,sl,sr,su,sv,ta,tcy,te,th,tr,uk</v>
+        <v>sa\", \"sl\", \"sr\", \"su\", \"sv\", \"ta\", \"tcy\", \"te\", \"th\", \"tr\", \"uk</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.2">
@@ -16197,7 +16197,7 @@
       </c>
       <c r="F534" t="str">
         <f t="shared" si="26"/>
-        <v>sa,sl,sr,su,sv,ta,tcy,te,th,tr,uk,vec</v>
+        <v>sa\", \"sl\", \"sr\", \"su\", \"sv\", \"ta\", \"tcy\", \"te\", \"th\", \"tr\", \"uk\", \"vec</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.2">
@@ -16220,7 +16220,7 @@
       </c>
       <c r="F535" t="str">
         <f t="shared" si="26"/>
-        <v>sa,sl,sr,su,sv,ta,tcy,te,th,tr,uk,vec,vi</v>
+        <v>sa\", \"sl\", \"sr\", \"su\", \"sv\", \"ta\", \"tcy\", \"te\", \"th\", \"tr\", \"uk\", \"vec\", \"vi</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.2">
@@ -16243,7 +16243,7 @@
       </c>
       <c r="F536" t="str">
         <f t="shared" si="26"/>
-        <v>sa,sl,sr,su,sv,ta,tcy,te,th,tr,uk,vec,vi,zh</v>
+        <v>sa\", \"sl\", \"sr\", \"su\", \"sv\", \"ta\", \"tcy\", \"te\", \"th\", \"tr\", \"uk\", \"vec\", \"vi\", \"zh</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.2">
@@ -16266,7 +16266,7 @@
       </c>
       <c r="F537" t="str">
         <f t="shared" si="26"/>
-        <v>sa,sl,sr,su,sv,ta,tcy,te,th,tr,uk,vec,vi,zh,zh-min-nan</v>
+        <v>sa\", \"sl\", \"sr\", \"su\", \"sv\", \"ta\", \"tcy\", \"te\", \"th\", \"tr\", \"uk\", \"vec\", \"vi\", \"zh\", \"zh-min-nan</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.2">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="F539" t="str">
         <f t="shared" si="26"/>
-        <v>ar,beta</v>
+        <v>ar\", \"beta</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.2">
@@ -16335,7 +16335,7 @@
       </c>
       <c r="F540" t="str">
         <f t="shared" si="26"/>
-        <v>ar,beta,cs</v>
+        <v>ar\", \"beta\", \"cs</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.2">
@@ -16358,7 +16358,7 @@
       </c>
       <c r="F541" t="str">
         <f t="shared" si="26"/>
-        <v>ar,beta,cs,de</v>
+        <v>ar\", \"beta\", \"cs\", \"de</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.2">
@@ -16381,7 +16381,7 @@
       </c>
       <c r="F542" t="str">
         <f t="shared" si="26"/>
-        <v>ar,beta,cs,de,el</v>
+        <v>ar\", \"beta\", \"cs\", \"de\", \"el</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.2">
@@ -16404,7 +16404,7 @@
       </c>
       <c r="F543" t="str">
         <f t="shared" si="26"/>
-        <v>ar,beta,cs,de,el,en</v>
+        <v>ar\", \"beta\", \"cs\", \"de\", \"el\", \"en</v>
       </c>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.2">
@@ -16427,7 +16427,7 @@
       </c>
       <c r="F544" t="str">
         <f t="shared" si="26"/>
-        <v>ar,beta,cs,de,el,en,es</v>
+        <v>ar\", \"beta\", \"cs\", \"de\", \"el\", \"en\", \"es</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.2">
@@ -16450,7 +16450,7 @@
       </c>
       <c r="F545" t="str">
         <f t="shared" si="26"/>
-        <v>ar,beta,cs,de,el,en,es,fr</v>
+        <v>ar\", \"beta\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fr</v>
       </c>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.2">
@@ -16473,7 +16473,7 @@
       </c>
       <c r="F546" t="str">
         <f t="shared" si="26"/>
-        <v>ar,beta,cs,de,el,en,es,fr,hi</v>
+        <v>ar\", \"beta\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fr\", \"hi</v>
       </c>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.2">
@@ -16496,7 +16496,7 @@
       </c>
       <c r="F547" t="str">
         <f t="shared" si="26"/>
-        <v>ar,beta,cs,de,el,en,es,fr,hi,it</v>
+        <v>ar\", \"beta\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fr\", \"hi\", \"it</v>
       </c>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.2">
@@ -16519,7 +16519,7 @@
       </c>
       <c r="F548" t="str">
         <f t="shared" si="26"/>
-        <v>ar,beta,cs,de,el,en,es,fr,hi,it,ja</v>
+        <v>ar\", \"beta\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fr\", \"hi\", \"it\", \"ja</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.2">
@@ -16542,7 +16542,7 @@
       </c>
       <c r="F549" t="str">
         <f t="shared" si="26"/>
-        <v>ar,beta,cs,de,el,en,es,fr,hi,it,ja,ko</v>
+        <v>ar\", \"beta\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fr\", \"hi\", \"it\", \"ja\", \"ko</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.2">
@@ -16565,7 +16565,7 @@
       </c>
       <c r="F550" t="str">
         <f t="shared" si="26"/>
-        <v>ar,beta,cs,de,el,en,es,fr,hi,it,ja,ko,pt</v>
+        <v>ar\", \"beta\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fr\", \"hi\", \"it\", \"ja\", \"ko\", \"pt</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.2">
@@ -16588,7 +16588,7 @@
       </c>
       <c r="F551" t="str">
         <f t="shared" si="26"/>
-        <v>ar,beta,cs,de,el,en,es,fr,hi,it,ja,ko,pt,ru</v>
+        <v>ar\", \"beta\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fr\", \"hi\", \"it\", \"ja\", \"ko\", \"pt\", \"ru</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.2">
@@ -16611,7 +16611,7 @@
       </c>
       <c r="F552" t="str">
         <f t="shared" si="26"/>
-        <v>ar,beta,cs,de,el,en,es,fr,hi,it,ja,ko,pt,ru,sl</v>
+        <v>ar\", \"beta\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fr\", \"hi\", \"it\", \"ja\", \"ko\", \"pt\", \"ru\", \"sl</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.2">
@@ -16634,7 +16634,7 @@
       </c>
       <c r="F553" t="str">
         <f t="shared" si="26"/>
-        <v>ar,beta,cs,de,el,en,es,fr,hi,it,ja,ko,pt,ru,sl,sv</v>
+        <v>ar\", \"beta\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fr\", \"hi\", \"it\", \"ja\", \"ko\", \"pt\", \"ru\", \"sl\", \"sv</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.2">
@@ -16657,7 +16657,7 @@
       </c>
       <c r="F554" t="str">
         <f t="shared" si="26"/>
-        <v>ar,beta,cs,de,el,en,es,fr,hi,it,ja,ko,pt,ru,sl,sv,zh</v>
+        <v>ar\", \"beta\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fr\", \"hi\", \"it\", \"ja\", \"ko\", \"pt\", \"ru\", \"sl\", \"sv\", \"zh</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.2">
@@ -16703,7 +16703,7 @@
       </c>
       <c r="F556" t="str">
         <f t="shared" si="26"/>
-        <v>bn,cs</v>
+        <v>bn\", \"cs</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.2">
@@ -16726,7 +16726,7 @@
       </c>
       <c r="F557" t="str">
         <f t="shared" si="26"/>
-        <v>bn,cs,de</v>
+        <v>bn\", \"cs\", \"de</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.2">
@@ -16749,7 +16749,7 @@
       </c>
       <c r="F558" t="str">
         <f t="shared" si="26"/>
-        <v>bn,cs,de,en</v>
+        <v>bn\", \"cs\", \"de\", \"en</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.2">
@@ -16772,7 +16772,7 @@
       </c>
       <c r="F559" t="str">
         <f t="shared" si="26"/>
-        <v>bn,cs,de,en,eo</v>
+        <v>bn\", \"cs\", \"de\", \"en\", \"eo</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.2">
@@ -16795,7 +16795,7 @@
       </c>
       <c r="F560" t="str">
         <f t="shared" si="26"/>
-        <v>bn,cs,de,en,eo,es</v>
+        <v>bn\", \"cs\", \"de\", \"en\", \"eo\", \"es</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.2">
@@ -16818,7 +16818,7 @@
       </c>
       <c r="F561" t="str">
         <f t="shared" si="26"/>
-        <v>bn,cs,de,en,eo,es,fa</v>
+        <v>bn\", \"cs\", \"de\", \"en\", \"eo\", \"es\", \"fa</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.2">
@@ -16841,7 +16841,7 @@
       </c>
       <c r="F562" t="str">
         <f t="shared" si="26"/>
-        <v>bn,cs,de,en,eo,es,fa,fr</v>
+        <v>bn\", \"cs\", \"de\", \"en\", \"eo\", \"es\", \"fa\", \"fr</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.2">
@@ -16864,7 +16864,7 @@
       </c>
       <c r="F563" t="str">
         <f t="shared" si="26"/>
-        <v>bn,cs,de,en,eo,es,fa,fr,he</v>
+        <v>bn\", \"cs\", \"de\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"he</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.2">
@@ -16887,7 +16887,7 @@
       </c>
       <c r="F564" t="str">
         <f t="shared" si="26"/>
-        <v>bn,cs,de,en,eo,es,fa,fr,he,hi</v>
+        <v>bn\", \"cs\", \"de\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"he\", \"hi</v>
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.2">
@@ -16910,7 +16910,7 @@
       </c>
       <c r="F565" t="str">
         <f t="shared" si="26"/>
-        <v>bn,cs,de,en,eo,es,fa,fr,he,hi,id</v>
+        <v>bn\", \"cs\", \"de\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"he\", \"hi\", \"id</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.2">
@@ -16933,7 +16933,7 @@
       </c>
       <c r="F566" t="str">
         <f t="shared" si="26"/>
-        <v>bn,cs,de,en,eo,es,fa,fr,he,hi,id,it</v>
+        <v>bn\", \"cs\", \"de\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"he\", \"hi\", \"id\", \"it</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.2">
@@ -16956,7 +16956,7 @@
       </c>
       <c r="F567" t="str">
         <f t="shared" si="26"/>
-        <v>bn,cs,de,en,eo,es,fa,fr,he,hi,id,it,ja</v>
+        <v>bn\", \"cs\", \"de\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"he\", \"hi\", \"id\", \"it\", \"ja</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.2">
@@ -16979,7 +16979,7 @@
       </c>
       <c r="F568" t="str">
         <f t="shared" si="26"/>
-        <v>bn,cs,de,en,eo,es,fa,fr,he,hi,id,it,ja,nl</v>
+        <v>bn\", \"cs\", \"de\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"he\", \"hi\", \"id\", \"it\", \"ja\", \"nl</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.2">
@@ -17002,7 +17002,7 @@
       </c>
       <c r="F569" t="str">
         <f t="shared" si="26"/>
-        <v>bn,cs,de,en,eo,es,fa,fr,he,hi,id,it,ja,nl,pt</v>
+        <v>bn\", \"cs\", \"de\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"he\", \"hi\", \"id\", \"it\", \"ja\", \"nl\", \"pt</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.2">
@@ -17025,7 +17025,7 @@
       </c>
       <c r="F570" t="str">
         <f t="shared" si="26"/>
-        <v>bn,cs,de,en,eo,es,fa,fr,he,hi,id,it,ja,nl,pt,ru</v>
+        <v>bn\", \"cs\", \"de\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"he\", \"hi\", \"id\", \"it\", \"ja\", \"nl\", \"pt\", \"ru</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.2">
@@ -17048,7 +17048,7 @@
       </c>
       <c r="F571" t="str">
         <f t="shared" si="26"/>
-        <v>bn,cs,de,en,eo,es,fa,fr,he,hi,id,it,ja,nl,pt,ru,shn</v>
+        <v>bn\", \"cs\", \"de\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"he\", \"hi\", \"id\", \"it\", \"ja\", \"nl\", \"pt\", \"ru\", \"shn</v>
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.2">
@@ -17071,7 +17071,7 @@
       </c>
       <c r="F572" t="str">
         <f t="shared" si="26"/>
-        <v>bn,cs,de,en,eo,es,fa,fr,he,hi,id,it,ja,nl,pt,ru,shn,tr</v>
+        <v>bn\", \"cs\", \"de\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"he\", \"hi\", \"id\", \"it\", \"ja\", \"nl\", \"pt\", \"ru\", \"shn\", \"tr</v>
       </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.2">
@@ -17094,7 +17094,7 @@
       </c>
       <c r="F573" t="str">
         <f t="shared" si="26"/>
-        <v>bn,cs,de,en,eo,es,fa,fr,he,hi,id,it,ja,nl,pt,ru,shn,tr,uk</v>
+        <v>bn\", \"cs\", \"de\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"he\", \"hi\", \"id\", \"it\", \"ja\", \"nl\", \"pt\", \"ru\", \"shn\", \"tr\", \"uk</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.2">
@@ -17117,7 +17117,7 @@
       </c>
       <c r="F574" t="str">
         <f t="shared" si="26"/>
-        <v>bn,cs,de,en,eo,es,fa,fr,he,hi,id,it,ja,nl,pt,ru,shn,tr,uk,vi</v>
+        <v>bn\", \"cs\", \"de\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"he\", \"hi\", \"id\", \"it\", \"ja\", \"nl\", \"pt\", \"ru\", \"shn\", \"tr\", \"uk\", \"vi</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.2">
@@ -17140,7 +17140,7 @@
       </c>
       <c r="F575" t="str">
         <f t="shared" si="26"/>
-        <v>bn,cs,de,en,eo,es,fa,fr,he,hi,id,it,ja,nl,pt,ru,shn,tr,uk,vi,zh</v>
+        <v>bn\", \"cs\", \"de\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"he\", \"hi\", \"id\", \"it\", \"ja\", \"nl\", \"pt\", \"ru\", \"shn\", \"tr\", \"uk\", \"vi\", \"zh</v>
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.2">
@@ -17186,7 +17186,7 @@
       </c>
       <c r="F577" t="str">
         <f t="shared" si="26"/>
-        <v>af,ar</v>
+        <v>af\", \"ar</v>
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.2">
@@ -17209,7 +17209,7 @@
       </c>
       <c r="F578" t="str">
         <f t="shared" si="26"/>
-        <v>af,ar,az</v>
+        <v>af\", \"ar\", \"az</v>
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.2">
@@ -17231,8 +17231,8 @@
         <v>16</v>
       </c>
       <c r="F579" t="str">
-        <f t="shared" si="26"/>
-        <v>af,ar,az,bg</v>
+        <f t="shared" ref="F579:F642" si="29">IF(B578&lt;&gt;B579,D579,F578&amp;"\"", \"""&amp;D579)</f>
+        <v>af\", \"ar\", \"az\", \"bg</v>
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.2">
@@ -17254,8 +17254,8 @@
         <v>16</v>
       </c>
       <c r="F580" t="str">
-        <f t="shared" ref="F580:F643" si="29">IF(B579&lt;&gt;B580,D580,F579&amp;","&amp;D580)</f>
-        <v>af,ar,az,bg,bn</v>
+        <f t="shared" si="29"/>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn</v>
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.2">
@@ -17278,7 +17278,7 @@
       </c>
       <c r="F581" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.2">
@@ -17301,7 +17301,7 @@
       </c>
       <c r="F582" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs</v>
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.2">
@@ -17324,7 +17324,7 @@
       </c>
       <c r="F583" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.2">
@@ -17347,7 +17347,7 @@
       </c>
       <c r="F584" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs</v>
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.2">
@@ -17370,7 +17370,7 @@
       </c>
       <c r="F585" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.2">
@@ -17393,7 +17393,7 @@
       </c>
       <c r="F586" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da</v>
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.2">
@@ -17416,7 +17416,7 @@
       </c>
       <c r="F587" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.2">
@@ -17439,7 +17439,7 @@
       </c>
       <c r="F588" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el</v>
       </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.2">
@@ -17462,7 +17462,7 @@
       </c>
       <c r="F589" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en</v>
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.2">
@@ -17485,7 +17485,7 @@
       </c>
       <c r="F590" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo</v>
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.2">
@@ -17508,7 +17508,7 @@
       </c>
       <c r="F591" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es</v>
       </c>
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.2">
@@ -17531,7 +17531,7 @@
       </c>
       <c r="F592" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.2">
@@ -17554,7 +17554,7 @@
       </c>
       <c r="F593" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.2">
@@ -17577,7 +17577,7 @@
       </c>
       <c r="F594" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi</v>
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.2">
@@ -17600,7 +17600,7 @@
       </c>
       <c r="F595" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr</v>
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.2">
@@ -17623,7 +17623,7 @@
       </c>
       <c r="F596" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd</v>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.2">
@@ -17646,7 +17646,7 @@
       </c>
       <c r="F597" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.2">
@@ -17669,7 +17669,7 @@
       </c>
       <c r="F598" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom</v>
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.2">
@@ -17692,7 +17692,7 @@
       </c>
       <c r="F599" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he</v>
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.2">
@@ -17715,7 +17715,7 @@
       </c>
       <c r="F600" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi</v>
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.2">
@@ -17738,7 +17738,7 @@
       </c>
       <c r="F601" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif</v>
       </c>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.2">
@@ -17761,7 +17761,7 @@
       </c>
       <c r="F602" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.2">
@@ -17784,7 +17784,7 @@
       </c>
       <c r="F603" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy</v>
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.2">
@@ -17807,7 +17807,7 @@
       </c>
       <c r="F604" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.2">
@@ -17830,7 +17830,7 @@
       </c>
       <c r="F605" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie</v>
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.2">
@@ -17853,7 +17853,7 @@
       </c>
       <c r="F606" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie\", \"is</v>
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.2">
@@ -17876,7 +17876,7 @@
       </c>
       <c r="F607" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie\", \"is\", \"it</v>
       </c>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.2">
@@ -17899,7 +17899,7 @@
       </c>
       <c r="F608" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie\", \"is\", \"it\", \"ja</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.2">
@@ -17922,7 +17922,7 @@
       </c>
       <c r="F609" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie\", \"is\", \"it\", \"ja\", \"ka</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.2">
@@ -17945,7 +17945,7 @@
       </c>
       <c r="F610" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka,kaa</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie\", \"is\", \"it\", \"ja\", \"ka\", \"kaa</v>
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.2">
@@ -17968,7 +17968,7 @@
       </c>
       <c r="F611" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka,kaa,kk</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie\", \"is\", \"it\", \"ja\", \"ka\", \"kaa\", \"kk</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.2">
@@ -17991,7 +17991,7 @@
       </c>
       <c r="F612" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka,kaa,kk,km</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie\", \"is\", \"it\", \"ja\", \"ka\", \"kaa\", \"kk\", \"km</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.2">
@@ -18014,7 +18014,7 @@
       </c>
       <c r="F613" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka,kaa,kk,km,kn</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie\", \"is\", \"it\", \"ja\", \"ka\", \"kaa\", \"kk\", \"km\", \"kn</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.2">
@@ -18037,7 +18037,7 @@
       </c>
       <c r="F614" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka,kaa,kk,km,kn,ko</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie\", \"is\", \"it\", \"ja\", \"ka\", \"kaa\", \"kk\", \"km\", \"kn\", \"ko</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.2">
@@ -18060,7 +18060,7 @@
       </c>
       <c r="F615" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka,kaa,kk,km,kn,ko,ku</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie\", \"is\", \"it\", \"ja\", \"ka\", \"kaa\", \"kk\", \"km\", \"kn\", \"ko\", \"ku</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.2">
@@ -18083,7 +18083,7 @@
       </c>
       <c r="F616" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka,kaa,kk,km,kn,ko,ku,lmo</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie\", \"is\", \"it\", \"ja\", \"ka\", \"kaa\", \"kk\", \"km\", \"kn\", \"ko\", \"ku\", \"lmo</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.2">
@@ -18106,7 +18106,7 @@
       </c>
       <c r="F617" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka,kaa,kk,km,kn,ko,ku,lmo,lt</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie\", \"is\", \"it\", \"ja\", \"ka\", \"kaa\", \"kk\", \"km\", \"kn\", \"ko\", \"ku\", \"lmo\", \"lt</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.2">
@@ -18129,7 +18129,7 @@
       </c>
       <c r="F618" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka,kaa,kk,km,kn,ko,ku,lmo,lt,mg</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie\", \"is\", \"it\", \"ja\", \"ka\", \"kaa\", \"kk\", \"km\", \"kn\", \"ko\", \"ku\", \"lmo\", \"lt\", \"mg</v>
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.2">
@@ -18152,7 +18152,7 @@
       </c>
       <c r="F619" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka,kaa,kk,km,kn,ko,ku,lmo,lt,mg,mk</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie\", \"is\", \"it\", \"ja\", \"ka\", \"kaa\", \"kk\", \"km\", \"kn\", \"ko\", \"ku\", \"lmo\", \"lt\", \"mg\", \"mk</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.2">
@@ -18175,7 +18175,7 @@
       </c>
       <c r="F620" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka,kaa,kk,km,kn,ko,ku,lmo,lt,mg,mk,ml</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie\", \"is\", \"it\", \"ja\", \"ka\", \"kaa\", \"kk\", \"km\", \"kn\", \"ko\", \"ku\", \"lmo\", \"lt\", \"mg\", \"mk\", \"ml</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.2">
@@ -18198,7 +18198,7 @@
       </c>
       <c r="F621" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka,kaa,kk,km,kn,ko,ku,lmo,lt,mg,mk,ml,mn</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie\", \"is\", \"it\", \"ja\", \"ka\", \"kaa\", \"kk\", \"km\", \"kn\", \"ko\", \"ku\", \"lmo\", \"lt\", \"mg\", \"mk\", \"ml\", \"mn</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.2">
@@ -18221,7 +18221,7 @@
       </c>
       <c r="F622" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka,kaa,kk,km,kn,ko,ku,lmo,lt,mg,mk,ml,mn,mnw</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie\", \"is\", \"it\", \"ja\", \"ka\", \"kaa\", \"kk\", \"km\", \"kn\", \"ko\", \"ku\", \"lmo\", \"lt\", \"mg\", \"mk\", \"ml\", \"mn\", \"mnw</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.2">
@@ -18244,7 +18244,7 @@
       </c>
       <c r="F623" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka,kaa,kk,km,kn,ko,ku,lmo,lt,mg,mk,ml,mn,mnw,mr</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie\", \"is\", \"it\", \"ja\", \"ka\", \"kaa\", \"kk\", \"km\", \"kn\", \"ko\", \"ku\", \"lmo\", \"lt\", \"mg\", \"mk\", \"ml\", \"mn\", \"mnw\", \"mr</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.2">
@@ -18267,7 +18267,7 @@
       </c>
       <c r="F624" t="str">
         <f t="shared" si="29"/>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka,kaa,kk,km,kn,ko,ku,lmo,lt,mg,mk,ml,mn,mnw,mr,ms</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie\", \"is\", \"it\", \"ja\", \"ka\", \"kaa\", \"kk\", \"km\", \"kn\", \"ko\", \"ku\", \"lmo\", \"lt\", \"mg\", \"mk\", \"ml\", \"mn\", \"mnw\", \"mr\", \"ms</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.2">
@@ -18313,7 +18313,7 @@
       </c>
       <c r="F626" t="str">
         <f t="shared" si="29"/>
-        <v>nds,nl</v>
+        <v>nds\", \"nl</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.2">
@@ -18336,7 +18336,7 @@
       </c>
       <c r="F627" t="str">
         <f t="shared" si="29"/>
-        <v>nds,nl,no</v>
+        <v>nds\", \"nl\", \"no</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.2">
@@ -18359,7 +18359,7 @@
       </c>
       <c r="F628" t="str">
         <f t="shared" si="29"/>
-        <v>nds,nl,no,oc</v>
+        <v>nds\", \"nl\", \"no\", \"oc</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.2">
@@ -18382,7 +18382,7 @@
       </c>
       <c r="F629" t="str">
         <f t="shared" si="29"/>
-        <v>nds,nl,no,oc,pl</v>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.2">
@@ -18405,7 +18405,7 @@
       </c>
       <c r="F630" t="str">
         <f t="shared" si="29"/>
-        <v>nds,nl,no,oc,pl,pt</v>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.2">
@@ -18428,7 +18428,7 @@
       </c>
       <c r="F631" t="str">
         <f t="shared" si="29"/>
-        <v>nds,nl,no,oc,pl,pt,ro</v>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro</v>
       </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.2">
@@ -18451,7 +18451,7 @@
       </c>
       <c r="F632" t="str">
         <f t="shared" si="29"/>
-        <v>nds,nl,no,oc,pl,pt,ro,ru</v>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru</v>
       </c>
     </row>
     <row r="633" spans="1:6" x14ac:dyDescent="0.2">
@@ -18474,7 +18474,7 @@
       </c>
       <c r="F633" t="str">
         <f t="shared" si="29"/>
-        <v>nds,nl,no,oc,pl,pt,ro,ru,sd</v>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru\", \"sd</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.2">
@@ -18497,7 +18497,7 @@
       </c>
       <c r="F634" t="str">
         <f t="shared" si="29"/>
-        <v>nds,nl,no,oc,pl,pt,ro,ru,sd,sg</v>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru\", \"sd\", \"sg</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.2">
@@ -18520,7 +18520,7 @@
       </c>
       <c r="F635" t="str">
         <f t="shared" si="29"/>
-        <v>nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si</v>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru\", \"sd\", \"sg\", \"si</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.2">
@@ -18543,7 +18543,7 @@
       </c>
       <c r="F636" t="str">
         <f t="shared" si="29"/>
-        <v>nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si,simple</v>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru\", \"sd\", \"sg\", \"si\", \"simple</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.2">
@@ -18566,7 +18566,7 @@
       </c>
       <c r="F637" t="str">
         <f t="shared" si="29"/>
-        <v>nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si,simple,skr</v>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru\", \"sd\", \"sg\", \"si\", \"simple\", \"skr</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.2">
@@ -18589,7 +18589,7 @@
       </c>
       <c r="F638" t="str">
         <f t="shared" si="29"/>
-        <v>nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si,simple,skr,sq</v>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru\", \"sd\", \"sg\", \"si\", \"simple\", \"skr\", \"sq</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.2">
@@ -18612,7 +18612,7 @@
       </c>
       <c r="F639" t="str">
         <f t="shared" si="29"/>
-        <v>nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si,simple,skr,sq,sr</v>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru\", \"sd\", \"sg\", \"si\", \"simple\", \"skr\", \"sq\", \"sr</v>
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.2">
@@ -18635,7 +18635,7 @@
       </c>
       <c r="F640" t="str">
         <f t="shared" si="29"/>
-        <v>nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si,simple,skr,sq,sr,sv</v>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru\", \"sd\", \"sg\", \"si\", \"simple\", \"skr\", \"sq\", \"sr\", \"sv</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.2">
@@ -18658,7 +18658,7 @@
       </c>
       <c r="F641" t="str">
         <f t="shared" si="29"/>
-        <v>nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si,simple,skr,sq,sr,sv,ta</v>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru\", \"sd\", \"sg\", \"si\", \"simple\", \"skr\", \"sq\", \"sr\", \"sv\", \"ta</v>
       </c>
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.2">
@@ -18681,7 +18681,7 @@
       </c>
       <c r="F642" t="str">
         <f t="shared" si="29"/>
-        <v>nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si,simple,skr,sq,sr,sv,ta,te</v>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru\", \"sd\", \"sg\", \"si\", \"simple\", \"skr\", \"sq\", \"sr\", \"sv\", \"ta\", \"te</v>
       </c>
     </row>
     <row r="643" spans="1:6" x14ac:dyDescent="0.2">
@@ -18703,8 +18703,8 @@
         <v>16</v>
       </c>
       <c r="F643" t="str">
-        <f t="shared" si="29"/>
-        <v>nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si,simple,skr,sq,sr,sv,ta,te,th</v>
+        <f t="shared" ref="F643:F652" si="32">IF(B642&lt;&gt;B643,D643,F642&amp;"\"", \"""&amp;D643)</f>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru\", \"sd\", \"sg\", \"si\", \"simple\", \"skr\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"th</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.2">
@@ -18726,8 +18726,8 @@
         <v>16</v>
       </c>
       <c r="F644" t="str">
-        <f t="shared" ref="F644:F652" si="32">IF(B643&lt;&gt;B644,D644,F643&amp;","&amp;D644)</f>
-        <v>nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si,simple,skr,sq,sr,sv,ta,te,th,tl</v>
+        <f t="shared" si="32"/>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru\", \"sd\", \"sg\", \"si\", \"simple\", \"skr\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"th\", \"tl</v>
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.2">
@@ -18750,7 +18750,7 @@
       </c>
       <c r="F645" t="str">
         <f t="shared" si="32"/>
-        <v>nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si,simple,skr,sq,sr,sv,ta,te,th,tl,tr</v>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru\", \"sd\", \"sg\", \"si\", \"simple\", \"skr\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"th\", \"tl\", \"tr</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.2">
@@ -18773,7 +18773,7 @@
       </c>
       <c r="F646" t="str">
         <f t="shared" si="32"/>
-        <v>nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si,simple,skr,sq,sr,sv,ta,te,th,tl,tr,uk</v>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru\", \"sd\", \"sg\", \"si\", \"simple\", \"skr\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"th\", \"tl\", \"tr\", \"uk</v>
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.2">
@@ -18796,7 +18796,7 @@
       </c>
       <c r="F647" t="str">
         <f t="shared" si="32"/>
-        <v>nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si,simple,skr,sq,sr,sv,ta,te,th,tl,tr,uk,uz</v>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru\", \"sd\", \"sg\", \"si\", \"simple\", \"skr\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"th\", \"tl\", \"tr\", \"uk\", \"uz</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.2">
@@ -18819,7 +18819,7 @@
       </c>
       <c r="F648" t="str">
         <f t="shared" si="32"/>
-        <v>nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si,simple,skr,sq,sr,sv,ta,te,th,tl,tr,uk,uz,vec</v>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru\", \"sd\", \"sg\", \"si\", \"simple\", \"skr\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"th\", \"tl\", \"tr\", \"uk\", \"uz\", \"vec</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.2">
@@ -18842,7 +18842,7 @@
       </c>
       <c r="F649" t="str">
         <f t="shared" si="32"/>
-        <v>nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si,simple,skr,sq,sr,sv,ta,te,th,tl,tr,uk,uz,vec,vi</v>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru\", \"sd\", \"sg\", \"si\", \"simple\", \"skr\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"th\", \"tl\", \"tr\", \"uk\", \"uz\", \"vec\", \"vi</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.2">
@@ -18865,7 +18865,7 @@
       </c>
       <c r="F650" t="str">
         <f t="shared" si="32"/>
-        <v>nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si,simple,skr,sq,sr,sv,ta,te,th,tl,tr,uk,uz,vec,vi,wa</v>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru\", \"sd\", \"sg\", \"si\", \"simple\", \"skr\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"th\", \"tl\", \"tr\", \"uk\", \"uz\", \"vec\", \"vi\", \"wa</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.2">
@@ -18888,7 +18888,7 @@
       </c>
       <c r="F651" t="str">
         <f t="shared" si="32"/>
-        <v>nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si,simple,skr,sq,sr,sv,ta,te,th,tl,tr,uk,uz,vec,vi,wa,yue</v>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru\", \"sd\", \"sg\", \"si\", \"simple\", \"skr\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"th\", \"tl\", \"tr\", \"uk\", \"uz\", \"vec\", \"vi\", \"wa\", \"yue</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.2">
@@ -18911,7 +18911,7 @@
       </c>
       <c r="F652" t="str">
         <f t="shared" si="32"/>
-        <v>nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si,simple,skr,sq,sr,sv,ta,te,th,tl,tr,uk,uz,vec,vi,wa,yue,zh</v>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru\", \"sd\", \"sg\", \"si\", \"simple\", \"skr\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"th\", \"tl\", \"tr\", \"uk\", \"uz\", \"vec\", \"vi\", \"wa\", \"yue\", \"zh</v>
       </c>
     </row>
   </sheetData>
@@ -18928,7 +18928,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+      <selection activeCell="D2" sqref="D2:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18951,15 +18951,15 @@
       </c>
       <c r="C2" t="str">
         <f>LOOKUP(A2,wiki_list!B:B,wiki_list!F:F)</f>
-        <v>ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca,cbk-zam,cdo,ce,ceb,ch</v>
+        <v>ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm\", \"bn\", \"bo\", \"bpy\", \"br\", \"bs\", \"btm\", \"bug\", \"bxr\", \"ca\", \"cbk-zam\", \"cdo\", \"ce\", \"ceb\", \"ch</v>
       </c>
       <c r="D2" t="str">
-        <f>"""grp"&amp;A2&amp;""" """&amp;C2&amp;""""</f>
-        <v>"grp1" "ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca,cbk-zam,cdo,ce,ceb,ch"</v>
+        <f>"\""grp"&amp;A2&amp;"\"": [\"""&amp;C2&amp;"\""]"</f>
+        <v>\"grp1\": [\"ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm\", \"bn\", \"bo\", \"bpy\", \"br\", \"bs\", \"btm\", \"bug\", \"bxr\", \"ca\", \"cbk-zam\", \"cdo\", \"ce\", \"ceb\", \"ch\"]</v>
       </c>
       <c r="E2" t="str">
-        <f>"dict """&amp;B2&amp;""" dict " &amp;D2</f>
-        <v>dict "wiki" dict "grp1" "ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca,cbk-zam,cdo,ce,ceb,ch"</v>
+        <f>"{\"""&amp;B2&amp;"\"":  {" &amp;D2</f>
+        <v>{\"wiki\":  {\"grp1\": [\"ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm\", \"bn\", \"bo\", \"bpy\", \"br\", \"bs\", \"btm\", \"bug\", \"bxr\", \"ca\", \"cbk-zam\", \"cdo\", \"ce\", \"ceb\", \"ch\"]</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -18972,16 +18972,15 @@
       </c>
       <c r="C3" t="str">
         <f>LOOKUP(A3,wiki_list!B:B,wiki_list!F:F)</f>
-        <v>ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan,gd,gl,glk,gn,gom,gor,got</v>
+        <v>ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo\", \"fr\", \"frp\", \"frr\", \"fur\", \"fy\", \"ga\", \"gag\", \"gan\", \"gd\", \"gl\", \"glk\", \"gn\", \"gom\", \"gor\", \"got</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D19" si="0">"""grp"&amp;A3&amp;""" """&amp;C3&amp;""""</f>
-        <v>"grp2" "ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan,gd,gl,glk,gn,gom,gor,got"</v>
+        <f t="shared" ref="D3:D19" si="0">"\""grp"&amp;A3&amp;"\"": [\"""&amp;C3&amp;"\""]"</f>
+        <v>\"grp2\": [\"ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo\", \"fr\", \"frp\", \"frr\", \"fur\", \"fy\", \"ga\", \"gag\", \"gan\", \"gd\", \"gl\", \"glk\", \"gn\", \"gom\", \"gor\", \"got\"]</v>
       </c>
       <c r="E3" t="str">
-        <f>IF(B2=B3,E2&amp;CHAR(10) &amp; D3,"dict """&amp;B3&amp;""" dict " &amp;D3)</f>
-        <v>dict "wiki" dict "grp1" "ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca,cbk-zam,cdo,ce,ceb,ch"
-"grp2" "ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan,gd,gl,glk,gn,gom,gor,got"</v>
+        <f>IF(B2=B3,E2&amp;", "&amp; D3,"}, \"""&amp;B3&amp;"\"": { " &amp;D3)</f>
+        <v>{\"wiki\":  {\"grp1\": [\"ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm\", \"bn\", \"bo\", \"bpy\", \"br\", \"bs\", \"btm\", \"bug\", \"bxr\", \"ca\", \"cbk-zam\", \"cdo\", \"ce\", \"ceb\", \"ch\"], \"grp2\": [\"ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo\", \"fr\", \"frp\", \"frr\", \"fur\", \"fy\", \"ga\", \"gag\", \"gan\", \"gd\", \"gl\", \"glk\", \"gn\", \"gom\", \"gor\", \"got\"]</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -18994,17 +18993,15 @@
       </c>
       <c r="C4" t="str">
         <f>LOOKUP(A4,wiki_list!B:B,wiki_list!F:F)</f>
-        <v>gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km,kn,knc,ko,krc,ks,ksh,ku,kv,kw</v>
+        <v>gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd\", \"kcg\", \"kg\", \"kge\", \"ki\", \"kk\", \"kl\", \"km\", \"kn\", \"knc\", \"ko\", \"krc\", \"ks\", \"ksh\", \"ku\", \"kv\", \"kw</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>"grp3" "gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km,kn,knc,ko,krc,ks,ksh,ku,kv,kw"</v>
+        <v>\"grp3\": [\"gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd\", \"kcg\", \"kg\", \"kge\", \"ki\", \"kk\", \"kl\", \"km\", \"kn\", \"knc\", \"ko\", \"krc\", \"ks\", \"ksh\", \"ku\", \"kv\", \"kw\"]</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" ref="E4:E19" si="1">IF(B3=B4,E3&amp;CHAR(10) &amp; D4,"dict """&amp;B4&amp;""" dict " &amp;D4)</f>
-        <v>dict "wiki" dict "grp1" "ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca,cbk-zam,cdo,ce,ceb,ch"
-"grp2" "ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan,gd,gl,glk,gn,gom,gor,got"
-"grp3" "gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km,kn,knc,ko,krc,ks,ksh,ku,kv,kw"</v>
+        <f t="shared" ref="E4:E19" si="1">IF(B3=B4,E3&amp;", "&amp; D4,"}, \"""&amp;B4&amp;"\"": { " &amp;D4)</f>
+        <v>{\"wiki\":  {\"grp1\": [\"ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm\", \"bn\", \"bo\", \"bpy\", \"br\", \"bs\", \"btm\", \"bug\", \"bxr\", \"ca\", \"cbk-zam\", \"cdo\", \"ce\", \"ceb\", \"ch\"], \"grp2\": [\"ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo\", \"fr\", \"frp\", \"frr\", \"fur\", \"fy\", \"ga\", \"gag\", \"gan\", \"gd\", \"gl\", \"glk\", \"gn\", \"gom\", \"gor\", \"got\"], \"grp3\": [\"gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd\", \"kcg\", \"kg\", \"kge\", \"ki\", \"kk\", \"kl\", \"km\", \"kn\", \"knc\", \"ko\", \"krc\", \"ks\", \"ksh\", \"ku\", \"kv\", \"kw\"]</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -19017,18 +19014,15 @@
       </c>
       <c r="C5" t="str">
         <f>LOOKUP(A5,wiki_list!B:B,wiki_list!F:F)</f>
-        <v>ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt,mwl,my,myv,mzn,nah,nap,nds,nds-nl,ne,new,nia</v>
+        <v>ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni\", \"mnw\", \"mo\", \"mr\", \"mrj\", \"ms\", \"mt\", \"mwl\", \"my\", \"myv\", \"mzn\", \"nah\", \"nap\", \"nds\", \"nds-nl\", \"ne\", \"new\", \"nia</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>"grp4" "ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt,mwl,my,myv,mzn,nah,nap,nds,nds-nl,ne,new,nia"</v>
+        <v>\"grp4\": [\"ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni\", \"mnw\", \"mo\", \"mr\", \"mrj\", \"ms\", \"mt\", \"mwl\", \"my\", \"myv\", \"mzn\", \"nah\", \"nap\", \"nds\", \"nds-nl\", \"ne\", \"new\", \"nia\"]</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="1"/>
-        <v>dict "wiki" dict "grp1" "ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca,cbk-zam,cdo,ce,ceb,ch"
-"grp2" "ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan,gd,gl,glk,gn,gom,gor,got"
-"grp3" "gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km,kn,knc,ko,krc,ks,ksh,ku,kv,kw"
-"grp4" "ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt,mwl,my,myv,mzn,nah,nap,nds,nds-nl,ne,new,nia"</v>
+        <v>{\"wiki\":  {\"grp1\": [\"ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm\", \"bn\", \"bo\", \"bpy\", \"br\", \"bs\", \"btm\", \"bug\", \"bxr\", \"ca\", \"cbk-zam\", \"cdo\", \"ce\", \"ceb\", \"ch\"], \"grp2\": [\"ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo\", \"fr\", \"frp\", \"frr\", \"fur\", \"fy\", \"ga\", \"gag\", \"gan\", \"gd\", \"gl\", \"glk\", \"gn\", \"gom\", \"gor\", \"got\"], \"grp3\": [\"gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd\", \"kcg\", \"kg\", \"kge\", \"ki\", \"kk\", \"kl\", \"km\", \"kn\", \"knc\", \"ko\", \"krc\", \"ks\", \"ksh\", \"ku\", \"kv\", \"kw\"], \"grp4\": [\"ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni\", \"mnw\", \"mo\", \"mr\", \"mrj\", \"ms\", \"mt\", \"mwl\", \"my\", \"myv\", \"mzn\", \"nah\", \"nap\", \"nds\", \"nds-nl\", \"ne\", \"new\", \"nia\"]</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -19041,19 +19035,15 @@
       </c>
       <c r="C6" t="str">
         <f>LOOKUP(A6,wiki_list!B:B,wiki_list!F:F)</f>
-        <v>nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk,ru,rue,rw,sa,sah,sat,sc,scn,sco,sd,se,sh,shi</v>
+        <v>nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm\", \"rmy\", \"ro\", \"roa-rup\", \"roa-tara\", \"rsk\", \"ru\", \"rue\", \"rw\", \"sa\", \"sah\", \"sat\", \"sc\", \"scn\", \"sco\", \"sd\", \"se\", \"sh\", \"shi</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>"grp5" "nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk,ru,rue,rw,sa,sah,sat,sc,scn,sco,sd,se,sh,shi"</v>
+        <v>\"grp5\": [\"nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm\", \"rmy\", \"ro\", \"roa-rup\", \"roa-tara\", \"rsk\", \"ru\", \"rue\", \"rw\", \"sa\", \"sah\", \"sat\", \"sc\", \"scn\", \"sco\", \"sd\", \"se\", \"sh\", \"shi\"]</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="1"/>
-        <v>dict "wiki" dict "grp1" "ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca,cbk-zam,cdo,ce,ceb,ch"
-"grp2" "ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan,gd,gl,glk,gn,gom,gor,got"
-"grp3" "gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km,kn,knc,ko,krc,ks,ksh,ku,kv,kw"
-"grp4" "ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt,mwl,my,myv,mzn,nah,nap,nds,nds-nl,ne,new,nia"
-"grp5" "nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk,ru,rue,rw,sa,sah,sat,sc,scn,sco,sd,se,sh,shi"</v>
+        <v>{\"wiki\":  {\"grp1\": [\"ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm\", \"bn\", \"bo\", \"bpy\", \"br\", \"bs\", \"btm\", \"bug\", \"bxr\", \"ca\", \"cbk-zam\", \"cdo\", \"ce\", \"ceb\", \"ch\"], \"grp2\": [\"ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo\", \"fr\", \"frp\", \"frr\", \"fur\", \"fy\", \"ga\", \"gag\", \"gan\", \"gd\", \"gl\", \"glk\", \"gn\", \"gom\", \"gor\", \"got\"], \"grp3\": [\"gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd\", \"kcg\", \"kg\", \"kge\", \"ki\", \"kk\", \"kl\", \"km\", \"kn\", \"knc\", \"ko\", \"krc\", \"ks\", \"ksh\", \"ku\", \"kv\", \"kw\"], \"grp4\": [\"ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni\", \"mnw\", \"mo\", \"mr\", \"mrj\", \"ms\", \"mt\", \"mwl\", \"my\", \"myv\", \"mzn\", \"nah\", \"nap\", \"nds\", \"nds-nl\", \"ne\", \"new\", \"nia\"], \"grp5\": [\"nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm\", \"rmy\", \"ro\", \"roa-rup\", \"roa-tara\", \"rsk\", \"ru\", \"rue\", \"rw\", \"sa\", \"sah\", \"sat\", \"sc\", \"scn\", \"sco\", \"sd\", \"se\", \"sh\", \"shi\"]</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -19066,20 +19056,15 @@
       </c>
       <c r="C7" t="str">
         <f>LOOKUP(A7,wiki_list!B:B,wiki_list!F:F)</f>
-        <v>shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly,tn,tpi,tr,ts,tt,tum,tw,ty,tyv,udm,ug,uk,ur,usability,uz</v>
+        <v>shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg\", \"th\", \"tk\", \"tl\", \"tly\", \"tn\", \"tpi\", \"tr\", \"ts\", \"tt\", \"tum\", \"tw\", \"ty\", \"tyv\", \"udm\", \"ug\", \"uk\", \"ur\", \"usability\", \"uz</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>"grp6" "shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly,tn,tpi,tr,ts,tt,tum,tw,ty,tyv,udm,ug,uk,ur,usability,uz"</v>
+        <v>\"grp6\": [\"shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg\", \"th\", \"tk\", \"tl\", \"tly\", \"tn\", \"tpi\", \"tr\", \"ts\", \"tt\", \"tum\", \"tw\", \"ty\", \"tyv\", \"udm\", \"ug\", \"uk\", \"ur\", \"usability\", \"uz\"]</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="1"/>
-        <v>dict "wiki" dict "grp1" "ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca,cbk-zam,cdo,ce,ceb,ch"
-"grp2" "ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan,gd,gl,glk,gn,gom,gor,got"
-"grp3" "gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km,kn,knc,ko,krc,ks,ksh,ku,kv,kw"
-"grp4" "ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt,mwl,my,myv,mzn,nah,nap,nds,nds-nl,ne,new,nia"
-"grp5" "nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk,ru,rue,rw,sa,sah,sat,sc,scn,sco,sd,se,sh,shi"
-"grp6" "shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly,tn,tpi,tr,ts,tt,tum,tw,ty,tyv,udm,ug,uk,ur,usability,uz"</v>
+        <v>{\"wiki\":  {\"grp1\": [\"ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm\", \"bn\", \"bo\", \"bpy\", \"br\", \"bs\", \"btm\", \"bug\", \"bxr\", \"ca\", \"cbk-zam\", \"cdo\", \"ce\", \"ceb\", \"ch\"], \"grp2\": [\"ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo\", \"fr\", \"frp\", \"frr\", \"fur\", \"fy\", \"ga\", \"gag\", \"gan\", \"gd\", \"gl\", \"glk\", \"gn\", \"gom\", \"gor\", \"got\"], \"grp3\": [\"gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd\", \"kcg\", \"kg\", \"kge\", \"ki\", \"kk\", \"kl\", \"km\", \"kn\", \"knc\", \"ko\", \"krc\", \"ks\", \"ksh\", \"ku\", \"kv\", \"kw\"], \"grp4\": [\"ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni\", \"mnw\", \"mo\", \"mr\", \"mrj\", \"ms\", \"mt\", \"mwl\", \"my\", \"myv\", \"mzn\", \"nah\", \"nap\", \"nds\", \"nds-nl\", \"ne\", \"new\", \"nia\"], \"grp5\": [\"nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm\", \"rmy\", \"ro\", \"roa-rup\", \"roa-tara\", \"rsk\", \"ru\", \"rue\", \"rw\", \"sa\", \"sah\", \"sat\", \"sc\", \"scn\", \"sco\", \"sd\", \"se\", \"sh\", \"shi\"], \"grp6\": [\"shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg\", \"th\", \"tk\", \"tl\", \"tly\", \"tn\", \"tpi\", \"tr\", \"ts\", \"tt\", \"tum\", \"tw\", \"ty\", \"tyv\", \"udm\", \"ug\", \"uk\", \"ur\", \"usability\", \"uz\"]</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -19092,21 +19077,15 @@
       </c>
       <c r="C8" t="str">
         <f>LOOKUP(A8,wiki_list!B:B,wiki_list!F:F)</f>
-        <v>vec,vep,vi,vls,vo,wa,war,wikidata,wikimania2007,wo,wuu,xal,xh,xmf,yi,yo,za,zea,zgh,zh,zh-classical,zh-min-nan,zh-yue,zu</v>
+        <v>vec\", \"vep\", \"vi\", \"vls\", \"vo\", \"wa\", \"war\", \"wikidata\", \"wikimania2007\", \"wo\", \"wuu\", \"xal\", \"xh\", \"xmf\", \"yi\", \"yo\", \"za\", \"zea\", \"zgh\", \"zh\", \"zh-classical\", \"zh-min-nan\", \"zh-yue\", \"zu</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>"grp7" "vec,vep,vi,vls,vo,wa,war,wikidata,wikimania2007,wo,wuu,xal,xh,xmf,yi,yo,za,zea,zgh,zh,zh-classical,zh-min-nan,zh-yue,zu"</v>
+        <v>\"grp7\": [\"vec\", \"vep\", \"vi\", \"vls\", \"vo\", \"wa\", \"war\", \"wikidata\", \"wikimania2007\", \"wo\", \"wuu\", \"xal\", \"xh\", \"xmf\", \"yi\", \"yo\", \"za\", \"zea\", \"zgh\", \"zh\", \"zh-classical\", \"zh-min-nan\", \"zh-yue\", \"zu\"]</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="1"/>
-        <v>dict "wiki" dict "grp1" "ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca,cbk-zam,cdo,ce,ceb,ch"
-"grp2" "ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan,gd,gl,glk,gn,gom,gor,got"
-"grp3" "gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km,kn,knc,ko,krc,ks,ksh,ku,kv,kw"
-"grp4" "ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt,mwl,my,myv,mzn,nah,nap,nds,nds-nl,ne,new,nia"
-"grp5" "nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk,ru,rue,rw,sa,sah,sat,sc,scn,sco,sd,se,sh,shi"
-"grp6" "shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly,tn,tpi,tr,ts,tt,tum,tw,ty,tyv,udm,ug,uk,ur,usability,uz"
-"grp7" "vec,vep,vi,vls,vo,wa,war,wikidata,wikimania2007,wo,wuu,xal,xh,xmf,yi,yo,za,zea,zgh,zh,zh-classical,zh-min-nan,zh-yue,zu"</v>
+        <v>{\"wiki\":  {\"grp1\": [\"ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm\", \"bn\", \"bo\", \"bpy\", \"br\", \"bs\", \"btm\", \"bug\", \"bxr\", \"ca\", \"cbk-zam\", \"cdo\", \"ce\", \"ceb\", \"ch\"], \"grp2\": [\"ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo\", \"fr\", \"frp\", \"frr\", \"fur\", \"fy\", \"ga\", \"gag\", \"gan\", \"gd\", \"gl\", \"glk\", \"gn\", \"gom\", \"gor\", \"got\"], \"grp3\": [\"gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd\", \"kcg\", \"kg\", \"kge\", \"ki\", \"kk\", \"kl\", \"km\", \"kn\", \"knc\", \"ko\", \"krc\", \"ks\", \"ksh\", \"ku\", \"kv\", \"kw\"], \"grp4\": [\"ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni\", \"mnw\", \"mo\", \"mr\", \"mrj\", \"ms\", \"mt\", \"mwl\", \"my\", \"myv\", \"mzn\", \"nah\", \"nap\", \"nds\", \"nds-nl\", \"ne\", \"new\", \"nia\"], \"grp5\": [\"nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm\", \"rmy\", \"ro\", \"roa-rup\", \"roa-tara\", \"rsk\", \"ru\", \"rue\", \"rw\", \"sa\", \"sah\", \"sat\", \"sc\", \"scn\", \"sco\", \"sd\", \"se\", \"sh\", \"shi\"], \"grp6\": [\"shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg\", \"th\", \"tk\", \"tl\", \"tly\", \"tn\", \"tpi\", \"tr\", \"ts\", \"tt\", \"tum\", \"tw\", \"ty\", \"tyv\", \"udm\", \"ug\", \"uk\", \"ur\", \"usability\", \"uz\"], \"grp7\": [\"vec\", \"vep\", \"vi\", \"vls\", \"vo\", \"wa\", \"war\", \"wikidata\", \"wikimania2007\", \"wo\", \"wuu\", \"xal\", \"xh\", \"xmf\", \"yi\", \"yo\", \"za\", \"zea\", \"zgh\", \"zh\", \"zh-classical\", \"zh-min-nan\", \"zh-yue\", \"zu\"]</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -19119,15 +19098,15 @@
       </c>
       <c r="C9" t="str">
         <f>LOOKUP(A9,wiki_list!B:B,wiki_list!F:F)</f>
-        <v>af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko,ku,la,lt,lv,mk,ml,ms,ne,nl,no,oc,pa,pl,pt,ro</v>
+        <v>af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it\", \"ja\", \"ka\", \"km\", \"ko\", \"ku\", \"la\", \"lt\", \"lv\", \"mk\", \"ml\", \"ms\", \"ne\", \"nl\", \"no\", \"oc\", \"pa\", \"pl\", \"pt\", \"ro</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>"grp8" "af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko,ku,la,lt,lv,mk,ml,ms,ne,nl,no,oc,pa,pl,pt,ro"</v>
+        <v>\"grp8\": [\"af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it\", \"ja\", \"ka\", \"km\", \"ko\", \"ku\", \"la\", \"lt\", \"lv\", \"mk\", \"ml\", \"ms\", \"ne\", \"nl\", \"no\", \"oc\", \"pa\", \"pl\", \"pt\", \"ro\"]</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="1"/>
-        <v>dict "wikibooks" dict "grp8" "af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko,ku,la,lt,lv,mk,ml,ms,ne,nl,no,oc,pa,pl,pt,ro"</v>
+        <v>}, \"wikibooks\": { \"grp8\": [\"af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it\", \"ja\", \"ka\", \"km\", \"ko\", \"ku\", \"la\", \"lt\", \"lv\", \"mk\", \"ml\", \"ms\", \"ne\", \"nl\", \"no\", \"oc\", \"pa\", \"pl\", \"pt\", \"ro\"]</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -19140,16 +19119,15 @@
       </c>
       <c r="C10" t="str">
         <f>LOOKUP(A10,wiki_list!B:B,wiki_list!F:F)</f>
-        <v>ru,shn,si,simple,sk,sl,sq,sr,sv,ta,te,tg,th,tl,tr,tt,uk,ur,vi,zh,zh-min-nan</v>
+        <v>ru\", \"shn\", \"si\", \"simple\", \"sk\", \"sl\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"tg\", \"th\", \"tl\", \"tr\", \"tt\", \"uk\", \"ur\", \"vi\", \"zh\", \"zh-min-nan</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>"grp9" "ru,shn,si,simple,sk,sl,sq,sr,sv,ta,te,tg,th,tl,tr,tt,uk,ur,vi,zh,zh-min-nan"</v>
+        <v>\"grp9\": [\"ru\", \"shn\", \"si\", \"simple\", \"sk\", \"sl\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"tg\", \"th\", \"tl\", \"tr\", \"tt\", \"uk\", \"ur\", \"vi\", \"zh\", \"zh-min-nan\"]</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
-        <v>dict "wikibooks" dict "grp8" "af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko,ku,la,lt,lv,mk,ml,ms,ne,nl,no,oc,pa,pl,pt,ro"
-"grp9" "ru,shn,si,simple,sk,sl,sq,sr,sv,ta,te,tg,th,tl,tr,tt,uk,ur,vi,zh,zh-min-nan"</v>
+        <v>}, \"wikibooks\": { \"grp8\": [\"af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it\", \"ja\", \"ka\", \"km\", \"ko\", \"ku\", \"la\", \"lt\", \"lv\", \"mk\", \"ml\", \"ms\", \"ne\", \"nl\", \"no\", \"oc\", \"pa\", \"pl\", \"pt\", \"ro\"], \"grp9\": [\"ru\", \"shn\", \"si\", \"simple\", \"sk\", \"sl\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"tg\", \"th\", \"tl\", \"tr\", \"tt\", \"uk\", \"ur\", \"vi\", \"zh\", \"zh-min-nan\"]</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -19162,15 +19140,15 @@
       </c>
       <c r="C11" t="str">
         <f>LOOKUP(A11,wiki_list!B:B,wiki_list!F:F)</f>
-        <v>ae,az,br,de-labs,en-labs,flaggedrevs-labs,ge,id,liquidthreads-labs,pl,readerfeedback-labs,ru,ua,uk</v>
+        <v>ae\", \"az\", \"br\", \"de-labs\", \"en-labs\", \"flaggedrevs-labs\", \"ge\", \"id\", \"liquidthreads-labs\", \"pl\", \"readerfeedback-labs\", \"ru\", \"ua\", \"uk</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>"grp10" "ae,az,br,de-labs,en-labs,flaggedrevs-labs,ge,id,liquidthreads-labs,pl,readerfeedback-labs,ru,ua,uk"</v>
+        <v>\"grp10\": [\"ae\", \"az\", \"br\", \"de-labs\", \"en-labs\", \"flaggedrevs-labs\", \"ge\", \"id\", \"liquidthreads-labs\", \"pl\", \"readerfeedback-labs\", \"ru\", \"ua\", \"uk\"]</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
-        <v>dict "wikimedia" dict "grp10" "ae,az,br,de-labs,en-labs,flaggedrevs-labs,ge,id,liquidthreads-labs,pl,readerfeedback-labs,ru,ua,uk"</v>
+        <v>}, \"wikimedia\": { \"grp10\": [\"ae\", \"az\", \"br\", \"de-labs\", \"en-labs\", \"flaggedrevs-labs\", \"ge\", \"id\", \"liquidthreads-labs\", \"pl\", \"readerfeedback-labs\", \"ru\", \"ua\", \"uk\"]</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -19183,15 +19161,15 @@
       </c>
       <c r="C12" t="str">
         <f>LOOKUP(A12,wiki_list!B:B,wiki_list!F:F)</f>
-        <v>ar,cs,de,el,en,es,fa,fi,fr,he,hu,it,ja,ko,pl,pt,ro,ru,shn,sr,ta,tr,uk,zh</v>
+        <v>ar\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fa\", \"fi\", \"fr\", \"he\", \"hu\", \"it\", \"ja\", \"ko\", \"pl\", \"pt\", \"ro\", \"ru\", \"shn\", \"sr\", \"ta\", \"tr\", \"uk\", \"zh</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>"grp11" "ar,cs,de,el,en,es,fa,fi,fr,he,hu,it,ja,ko,pl,pt,ro,ru,shn,sr,ta,tr,uk,zh"</v>
+        <v>\"grp11\": [\"ar\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fa\", \"fi\", \"fr\", \"he\", \"hu\", \"it\", \"ja\", \"ko\", \"pl\", \"pt\", \"ro\", \"ru\", \"shn\", \"sr\", \"ta\", \"tr\", \"uk\", \"zh\"]</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="1"/>
-        <v>dict "wikinews" dict "grp11" "ar,cs,de,el,en,es,fa,fi,fr,he,hu,it,ja,ko,pl,pt,ro,ru,shn,sr,ta,tr,uk,zh"</v>
+        <v>}, \"wikinews\": { \"grp11\": [\"ar\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fa\", \"fi\", \"fr\", \"he\", \"hu\", \"it\", \"ja\", \"ko\", \"pl\", \"pt\", \"ro\", \"ru\", \"shn\", \"sr\", \"ta\", \"tr\", \"uk\", \"zh\"]</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -19204,15 +19182,15 @@
       </c>
       <c r="C13" t="str">
         <f>LOOKUP(A13,wiki_list!B:B,wiki_list!F:F)</f>
-        <v>ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka,ko,no,pl,pt,ru,simple,sl,sr,su,ta,th,tl,tr,uk,uz,vi,zh</v>
+        <v>ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu\", \"it\", \"ja\", \"ka\", \"ko\", \"no\", \"pl\", \"pt\", \"ru\", \"simple\", \"sl\", \"sr\", \"su\", \"ta\", \"th\", \"tl\", \"tr\", \"uk\", \"uz\", \"vi\", \"zh</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>"grp12" "ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka,ko,no,pl,pt,ru,simple,sl,sr,su,ta,th,tl,tr,uk,uz,vi,zh"</v>
+        <v>\"grp12\": [\"ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu\", \"it\", \"ja\", \"ka\", \"ko\", \"no\", \"pl\", \"pt\", \"ru\", \"simple\", \"sl\", \"sr\", \"su\", \"ta\", \"th\", \"tl\", \"tr\", \"uk\", \"uz\", \"vi\", \"zh\"]</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="1"/>
-        <v>dict "wikiquote" dict "grp12" "ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka,ko,no,pl,pt,ru,simple,sl,sr,su,ta,th,tl,tr,uk,uz,vi,zh"</v>
+        <v>}, \"wikiquote\": { \"grp12\": [\"ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu\", \"it\", \"ja\", \"ka\", \"ko\", \"no\", \"pl\", \"pt\", \"ru\", \"simple\", \"sl\", \"sr\", \"su\", \"ta\", \"th\", \"tl\", \"tr\", \"uk\", \"uz\", \"vi\", \"zh\"]</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -19225,15 +19203,15 @@
       </c>
       <c r="C14" t="str">
         <f>LOOKUP(A14,wiki_list!B:B,wiki_list!F:F)</f>
-        <v>ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn,ko,la,lij,mk,ml,mr,ms,nap,nl,no,pa,pl,pt,ro,ru</v>
+        <v>ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it\", \"ja\", \"jv\", \"ka\", \"kn\", \"ko\", \"la\", \"lij\", \"mk\", \"ml\", \"mr\", \"ms\", \"nap\", \"nl\", \"no\", \"pa\", \"pl\", \"pt\", \"ro\", \"ru</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>"grp13" "ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn,ko,la,lij,mk,ml,mr,ms,nap,nl,no,pa,pl,pt,ro,ru"</v>
+        <v>\"grp13\": [\"ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it\", \"ja\", \"jv\", \"ka\", \"kn\", \"ko\", \"la\", \"lij\", \"mk\", \"ml\", \"mr\", \"ms\", \"nap\", \"nl\", \"no\", \"pa\", \"pl\", \"pt\", \"ro\", \"ru\"]</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="1"/>
-        <v>dict "wikisource" dict "grp13" "ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn,ko,la,lij,mk,ml,mr,ms,nap,nl,no,pa,pl,pt,ro,ru"</v>
+        <v>}, \"wikisource\": { \"grp13\": [\"ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it\", \"ja\", \"jv\", \"ka\", \"kn\", \"ko\", \"la\", \"lij\", \"mk\", \"ml\", \"mr\", \"ms\", \"nap\", \"nl\", \"no\", \"pa\", \"pl\", \"pt\", \"ro\", \"ru\"]</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -19246,16 +19224,15 @@
       </c>
       <c r="C15" t="str">
         <f>LOOKUP(A15,wiki_list!B:B,wiki_list!F:F)</f>
-        <v>sa,sl,sr,su,sv,ta,tcy,te,th,tr,uk,vec,vi,zh,zh-min-nan</v>
+        <v>sa\", \"sl\", \"sr\", \"su\", \"sv\", \"ta\", \"tcy\", \"te\", \"th\", \"tr\", \"uk\", \"vec\", \"vi\", \"zh\", \"zh-min-nan</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>"grp14" "sa,sl,sr,su,sv,ta,tcy,te,th,tr,uk,vec,vi,zh,zh-min-nan"</v>
+        <v>\"grp14\": [\"sa\", \"sl\", \"sr\", \"su\", \"sv\", \"ta\", \"tcy\", \"te\", \"th\", \"tr\", \"uk\", \"vec\", \"vi\", \"zh\", \"zh-min-nan\"]</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="1"/>
-        <v>dict "wikisource" dict "grp13" "ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn,ko,la,lij,mk,ml,mr,ms,nap,nl,no,pa,pl,pt,ro,ru"
-"grp14" "sa,sl,sr,su,sv,ta,tcy,te,th,tr,uk,vec,vi,zh,zh-min-nan"</v>
+        <v>}, \"wikisource\": { \"grp13\": [\"ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it\", \"ja\", \"jv\", \"ka\", \"kn\", \"ko\", \"la\", \"lij\", \"mk\", \"ml\", \"mr\", \"ms\", \"nap\", \"nl\", \"no\", \"pa\", \"pl\", \"pt\", \"ro\", \"ru\"], \"grp14\": [\"sa\", \"sl\", \"sr\", \"su\", \"sv\", \"ta\", \"tcy\", \"te\", \"th\", \"tr\", \"uk\", \"vec\", \"vi\", \"zh\", \"zh-min-nan\"]</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -19268,15 +19245,15 @@
       </c>
       <c r="C16" t="str">
         <f>LOOKUP(A16,wiki_list!B:B,wiki_list!F:F)</f>
-        <v>ar,beta,cs,de,el,en,es,fr,hi,it,ja,ko,pt,ru,sl,sv,zh</v>
+        <v>ar\", \"beta\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fr\", \"hi\", \"it\", \"ja\", \"ko\", \"pt\", \"ru\", \"sl\", \"sv\", \"zh</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>"grp15" "ar,beta,cs,de,el,en,es,fr,hi,it,ja,ko,pt,ru,sl,sv,zh"</v>
+        <v>\"grp15\": [\"ar\", \"beta\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fr\", \"hi\", \"it\", \"ja\", \"ko\", \"pt\", \"ru\", \"sl\", \"sv\", \"zh\"]</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="1"/>
-        <v>dict "wikiversity" dict "grp15" "ar,beta,cs,de,el,en,es,fr,hi,it,ja,ko,pt,ru,sl,sv,zh"</v>
+        <v>}, \"wikiversity\": { \"grp15\": [\"ar\", \"beta\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fr\", \"hi\", \"it\", \"ja\", \"ko\", \"pt\", \"ru\", \"sl\", \"sv\", \"zh\"]</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -19289,15 +19266,15 @@
       </c>
       <c r="C17" t="str">
         <f>LOOKUP(A17,wiki_list!B:B,wiki_list!F:F)</f>
-        <v>bn,cs,de,en,eo,es,fa,fr,he,hi,id,it,ja,nl,pt,ru,shn,tr,uk,vi,zh</v>
+        <v>bn\", \"cs\", \"de\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"he\", \"hi\", \"id\", \"it\", \"ja\", \"nl\", \"pt\", \"ru\", \"shn\", \"tr\", \"uk\", \"vi\", \"zh</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>"grp16" "bn,cs,de,en,eo,es,fa,fr,he,hi,id,it,ja,nl,pt,ru,shn,tr,uk,vi,zh"</v>
+        <v>\"grp16\": [\"bn\", \"cs\", \"de\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"he\", \"hi\", \"id\", \"it\", \"ja\", \"nl\", \"pt\", \"ru\", \"shn\", \"tr\", \"uk\", \"vi\", \"zh\"]</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="1"/>
-        <v>dict "wikivoyage" dict "grp16" "bn,cs,de,en,eo,es,fa,fr,he,hi,id,it,ja,nl,pt,ru,shn,tr,uk,vi,zh"</v>
+        <v>}, \"wikivoyage\": { \"grp16\": [\"bn\", \"cs\", \"de\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"he\", \"hi\", \"id\", \"it\", \"ja\", \"nl\", \"pt\", \"ru\", \"shn\", \"tr\", \"uk\", \"vi\", \"zh\"]</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -19310,15 +19287,15 @@
       </c>
       <c r="C18" t="str">
         <f>LOOKUP(A18,wiki_list!B:B,wiki_list!F:F)</f>
-        <v>af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka,kaa,kk,km,kn,ko,ku,lmo,lt,mg,mk,ml,mn,mnw,mr,ms</v>
+        <v>af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie\", \"is\", \"it\", \"ja\", \"ka\", \"kaa\", \"kk\", \"km\", \"kn\", \"ko\", \"ku\", \"lmo\", \"lt\", \"mg\", \"mk\", \"ml\", \"mn\", \"mnw\", \"mr\", \"ms</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>"grp17" "af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka,kaa,kk,km,kn,ko,ku,lmo,lt,mg,mk,ml,mn,mnw,mr,ms"</v>
+        <v>\"grp17\": [\"af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie\", \"is\", \"it\", \"ja\", \"ka\", \"kaa\", \"kk\", \"km\", \"kn\", \"ko\", \"ku\", \"lmo\", \"lt\", \"mg\", \"mk\", \"ml\", \"mn\", \"mnw\", \"mr\", \"ms\"]</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="1"/>
-        <v>dict "wiktionary" dict "grp17" "af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka,kaa,kk,km,kn,ko,ku,lmo,lt,mg,mk,ml,mn,mnw,mr,ms"</v>
+        <v>}, \"wiktionary\": { \"grp17\": [\"af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie\", \"is\", \"it\", \"ja\", \"ka\", \"kaa\", \"kk\", \"km\", \"kn\", \"ko\", \"ku\", \"lmo\", \"lt\", \"mg\", \"mk\", \"ml\", \"mn\", \"mnw\", \"mr\", \"ms\"]</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -19331,16 +19308,15 @@
       </c>
       <c r="C19" t="str">
         <f>LOOKUP(A19,wiki_list!B:B,wiki_list!F:F)</f>
-        <v>nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si,simple,skr,sq,sr,sv,ta,te,th,tl,tr,uk,uz,vec,vi,wa,yue,zh</v>
+        <v>nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru\", \"sd\", \"sg\", \"si\", \"simple\", \"skr\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"th\", \"tl\", \"tr\", \"uk\", \"uz\", \"vec\", \"vi\", \"wa\", \"yue\", \"zh</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>"grp18" "nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si,simple,skr,sq,sr,sv,ta,te,th,tl,tr,uk,uz,vec,vi,wa,yue,zh"</v>
+        <v>\"grp18\": [\"nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru\", \"sd\", \"sg\", \"si\", \"simple\", \"skr\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"th\", \"tl\", \"tr\", \"uk\", \"uz\", \"vec\", \"vi\", \"wa\", \"yue\", \"zh\"]</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="1"/>
-        <v>dict "wiktionary" dict "grp17" "af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka,kaa,kk,km,kn,ko,ku,lmo,lt,mg,mk,ml,mn,mnw,mr,ms"
-"grp18" "nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si,simple,skr,sq,sr,sv,ta,te,th,tl,tr,uk,uz,vec,vi,wa,yue,zh"</v>
+        <v>}, \"wiktionary\": { \"grp17\": [\"af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie\", \"is\", \"it\", \"ja\", \"ka\", \"kaa\", \"kk\", \"km\", \"kn\", \"ko\", \"ku\", \"lmo\", \"lt\", \"mg\", \"mk\", \"ml\", \"mn\", \"mnw\", \"mr\", \"ms\"], \"grp18\": [\"nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru\", \"sd\", \"sg\", \"si\", \"simple\", \"skr\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"th\", \"tl\", \"tr\", \"uk\", \"uz\", \"vec\", \"vi\", \"wa\", \"yue\", \"zh\"]</v>
       </c>
     </row>
   </sheetData>
@@ -19352,7 +19328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BCFE7A-F171-284A-A828-F1BCFE8B74A0}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
@@ -19369,13 +19345,7 @@
       </c>
       <c r="B2" t="str">
         <f>LOOKUP(sites!A2,group!B:B,group!E:E)</f>
-        <v>dict "wiki" dict "grp1" "ab,ady,af,als,alt,am,ami,an,ang,anp,ar,ary,arz,as,ast,av,avk,awa,ay,az,azb,ba,ban,bar,bat-smg,bcl,bdr,be,be-x-old,bew,bg,bh,bjn,blk,bm,bn,bo,bpy,br,bs,btm,bug,bxr,ca,cbk-zam,cdo,ce,ceb,ch"
-"grp2" "ckb,co,commons,crh,cs,csb,cu,cv,cy,da,dag,de,dga,din,diq,dsb,dtp,dty,dv,dz,el,eml,en,eo,es,et,eu,ext,fa,fat,ff,fi,fiu-vro,fj,fo,fr,frp,frr,fur,fy,ga,gag,gan,gd,gl,glk,gn,gom,gor,got"
-"grp3" "gpe,gu,gv,ha,hak,haw,he,hi,hif,hr,hsb,ht,hu,hy,hyw,ia,iba,id,ie,ig,ilo,incubator,inh,io,is,it,ja,jam,jbo,jv,ka,kaa,kab,kbd,kcg,kg,kge,ki,kk,kl,km,kn,knc,ko,krc,ks,ksh,ku,kv,kw"
-"grp4" "ky,la,labs,lad,lb,lbe,lez,lfn,lg,li,lij,lld,lmo,ln,lo,logoc,lrc,lt,ltg,lv,mad,mai,map-bms,mediawiki,meta,mg,mhr,mi,min,mk,ml,mn,mni,mnw,mo,mr,mrj,ms,mt,mwl,my,myv,mzn,nah,nap,nds,nds-nl,ne,new,nia"
-"grp5" "nl,nn,no,nov,nr,nrm,nso,nv,ny,olo,om,or,os,outreach,pa,pag,pam,pap,pcd,pcm,pdc,pfl,pi,pl,pms,pnb,pnt,ps,pt,pwn,qu,rm,rmy,ro,roa-rup,roa-tara,rsk,ru,rue,rw,sa,sah,sat,sc,scn,sco,sd,se,sh,shi"
-"grp6" "shn,si,simple,sk,skr,sl,sm,smn,sn,so,sources,species,sq,sr,ss,st,stq,strategy,su,sv,sw,syl,szl,ta,tcy,tdd,te,test,test2,tet,tg,th,tk,tl,tly,tn,tpi,tr,ts,tt,tum,tw,ty,tyv,udm,ug,uk,ur,usability,uz"
-"grp7" "vec,vep,vi,vls,vo,wa,war,wikidata,wikimania2007,wo,wuu,xal,xh,xmf,yi,yo,za,zea,zgh,zh,zh-classical,zh-min-nan,zh-yue,zu"</v>
+        <v>{\"wiki\":  {\"grp1\": [\"ab\", \"ady\", \"af\", \"als\", \"alt\", \"am\", \"ami\", \"an\", \"ang\", \"anp\", \"ar\", \"ary\", \"arz\", \"as\", \"ast\", \"av\", \"avk\", \"awa\", \"ay\", \"az\", \"azb\", \"ba\", \"ban\", \"bar\", \"bat-smg\", \"bcl\", \"bdr\", \"be\", \"be-x-old\", \"bew\", \"bg\", \"bh\", \"bjn\", \"blk\", \"bm\", \"bn\", \"bo\", \"bpy\", \"br\", \"bs\", \"btm\", \"bug\", \"bxr\", \"ca\", \"cbk-zam\", \"cdo\", \"ce\", \"ceb\", \"ch\"], \"grp2\": [\"ckb\", \"co\", \"commons\", \"crh\", \"cs\", \"csb\", \"cu\", \"cv\", \"cy\", \"da\", \"dag\", \"de\", \"dga\", \"din\", \"diq\", \"dsb\", \"dtp\", \"dty\", \"dv\", \"dz\", \"el\", \"eml\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"ext\", \"fa\", \"fat\", \"ff\", \"fi\", \"fiu-vro\", \"fj\", \"fo\", \"fr\", \"frp\", \"frr\", \"fur\", \"fy\", \"ga\", \"gag\", \"gan\", \"gd\", \"gl\", \"glk\", \"gn\", \"gom\", \"gor\", \"got\"], \"grp3\": [\"gpe\", \"gu\", \"gv\", \"ha\", \"hak\", \"haw\", \"he\", \"hi\", \"hif\", \"hr\", \"hsb\", \"ht\", \"hu\", \"hy\", \"hyw\", \"ia\", \"iba\", \"id\", \"ie\", \"ig\", \"ilo\", \"incubator\", \"inh\", \"io\", \"is\", \"it\", \"ja\", \"jam\", \"jbo\", \"jv\", \"ka\", \"kaa\", \"kab\", \"kbd\", \"kcg\", \"kg\", \"kge\", \"ki\", \"kk\", \"kl\", \"km\", \"kn\", \"knc\", \"ko\", \"krc\", \"ks\", \"ksh\", \"ku\", \"kv\", \"kw\"], \"grp4\": [\"ky\", \"la\", \"labs\", \"lad\", \"lb\", \"lbe\", \"lez\", \"lfn\", \"lg\", \"li\", \"lij\", \"lld\", \"lmo\", \"ln\", \"lo\", \"logoc\", \"lrc\", \"lt\", \"ltg\", \"lv\", \"mad\", \"mai\", \"map-bms\", \"mediawiki\", \"meta\", \"mg\", \"mhr\", \"mi\", \"min\", \"mk\", \"ml\", \"mn\", \"mni\", \"mnw\", \"mo\", \"mr\", \"mrj\", \"ms\", \"mt\", \"mwl\", \"my\", \"myv\", \"mzn\", \"nah\", \"nap\", \"nds\", \"nds-nl\", \"ne\", \"new\", \"nia\"], \"grp5\": [\"nl\", \"nn\", \"no\", \"nov\", \"nr\", \"nrm\", \"nso\", \"nv\", \"ny\", \"olo\", \"om\", \"or\", \"os\", \"outreach\", \"pa\", \"pag\", \"pam\", \"pap\", \"pcd\", \"pcm\", \"pdc\", \"pfl\", \"pi\", \"pl\", \"pms\", \"pnb\", \"pnt\", \"ps\", \"pt\", \"pwn\", \"qu\", \"rm\", \"rmy\", \"ro\", \"roa-rup\", \"roa-tara\", \"rsk\", \"ru\", \"rue\", \"rw\", \"sa\", \"sah\", \"sat\", \"sc\", \"scn\", \"sco\", \"sd\", \"se\", \"sh\", \"shi\"], \"grp6\": [\"shn\", \"si\", \"simple\", \"sk\", \"skr\", \"sl\", \"sm\", \"smn\", \"sn\", \"so\", \"sources\", \"species\", \"sq\", \"sr\", \"ss\", \"st\", \"stq\", \"strategy\", \"su\", \"sv\", \"sw\", \"syl\", \"szl\", \"ta\", \"tcy\", \"tdd\", \"te\", \"test\", \"test2\", \"tet\", \"tg\", \"th\", \"tk\", \"tl\", \"tly\", \"tn\", \"tpi\", \"tr\", \"ts\", \"tt\", \"tum\", \"tw\", \"ty\", \"tyv\", \"udm\", \"ug\", \"uk\", \"ur\", \"usability\", \"uz\"], \"grp7\": [\"vec\", \"vep\", \"vi\", \"vls\", \"vo\", \"wa\", \"war\", \"wikidata\", \"wikimania2007\", \"wo\", \"wuu\", \"xal\", \"xh\", \"xmf\", \"yi\", \"yo\", \"za\", \"zea\", \"zgh\", \"zh\", \"zh-classical\", \"zh-min-nan\", \"zh-yue\", \"zu\"]</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -19384,8 +19354,7 @@
       </c>
       <c r="B3" t="str">
         <f>LOOKUP(sites!A3,group!B:B,group!E:E)</f>
-        <v>dict "wikibooks" dict "grp8" "af,ang,ar,az,ba,be,bg,bn,ca,cs,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,he,hi,hr,hu,hy,id,is,it,ja,ka,km,ko,ku,la,lt,lv,mk,ml,ms,ne,nl,no,oc,pa,pl,pt,ro"
-"grp9" "ru,shn,si,simple,sk,sl,sq,sr,sv,ta,te,tg,th,tl,tr,tt,uk,ur,vi,zh,zh-min-nan"</v>
+        <v>}, \"wikibooks\": { \"grp8\": [\"af\", \"ang\", \"ar\", \"az\", \"ba\", \"be\", \"bg\", \"bn\", \"ca\", \"cs\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"is\", \"it\", \"ja\", \"ka\", \"km\", \"ko\", \"ku\", \"la\", \"lt\", \"lv\", \"mk\", \"ml\", \"ms\", \"ne\", \"nl\", \"no\", \"oc\", \"pa\", \"pl\", \"pt\", \"ro\"], \"grp9\": [\"ru\", \"shn\", \"si\", \"simple\", \"sk\", \"sl\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"tg\", \"th\", \"tl\", \"tr\", \"tt\", \"uk\", \"ur\", \"vi\", \"zh\", \"zh-min-nan\"]</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -19394,7 +19363,7 @@
       </c>
       <c r="B4" t="str">
         <f>LOOKUP(sites!A4,group!B:B,group!E:E)</f>
-        <v>dict "wikimedia" dict "grp10" "ae,az,br,de-labs,en-labs,flaggedrevs-labs,ge,id,liquidthreads-labs,pl,readerfeedback-labs,ru,ua,uk"</v>
+        <v>}, \"wikimedia\": { \"grp10\": [\"ae\", \"az\", \"br\", \"de-labs\", \"en-labs\", \"flaggedrevs-labs\", \"ge\", \"id\", \"liquidthreads-labs\", \"pl\", \"readerfeedback-labs\", \"ru\", \"ua\", \"uk\"]</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -19403,7 +19372,7 @@
       </c>
       <c r="B5" t="str">
         <f>LOOKUP(sites!A5,group!B:B,group!E:E)</f>
-        <v>dict "wikinews" dict "grp11" "ar,cs,de,el,en,es,fa,fi,fr,he,hu,it,ja,ko,pl,pt,ro,ru,shn,sr,ta,tr,uk,zh"</v>
+        <v>}, \"wikinews\": { \"grp11\": [\"ar\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fa\", \"fi\", \"fr\", \"he\", \"hu\", \"it\", \"ja\", \"ko\", \"pl\", \"pt\", \"ro\", \"ru\", \"shn\", \"sr\", \"ta\", \"tr\", \"uk\", \"zh\"]</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -19412,7 +19381,7 @@
       </c>
       <c r="B6" t="str">
         <f>LOOKUP(sites!A6,group!B:B,group!E:E)</f>
-        <v>dict "wikiquote" dict "grp12" "ar,as,az,bg,bjn,br,ca,cy,da,de,el,en,eo,es,fa,fr,gl,gu,he,hi,hu,it,ja,ka,ko,no,pl,pt,ru,simple,sl,sr,su,ta,th,tl,tr,uk,uz,vi,zh"</v>
+        <v>}, \"wikiquote\": { \"grp12\": [\"ar\", \"as\", \"az\", \"bg\", \"bjn\", \"br\", \"ca\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hu\", \"it\", \"ja\", \"ka\", \"ko\", \"no\", \"pl\", \"pt\", \"ru\", \"simple\", \"sl\", \"sr\", \"su\", \"ta\", \"th\", \"tl\", \"tr\", \"uk\", \"uz\", \"vi\", \"zh\"]</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -19421,8 +19390,7 @@
       </c>
       <c r="B7" t="str">
         <f>LOOKUP(sites!A7,group!B:B,group!E:E)</f>
-        <v>dict "wikisource" dict "grp13" "ar,as,az,be,bg,bn,br,ca,cs,cy,da,de,el,en,eo,es,et,eu,fa,fi,fr,gl,gu,he,hi,hr,hu,hy,id,it,ja,jv,ka,kn,ko,la,lij,mk,ml,mr,ms,nap,nl,no,pa,pl,pt,ro,ru"
-"grp14" "sa,sl,sr,su,sv,ta,tcy,te,th,tr,uk,vec,vi,zh,zh-min-nan"</v>
+        <v>}, \"wikisource\": { \"grp13\": [\"ar\", \"as\", \"az\", \"be\", \"bg\", \"bn\", \"br\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"eu\", \"fa\", \"fi\", \"fr\", \"gl\", \"gu\", \"he\", \"hi\", \"hr\", \"hu\", \"hy\", \"id\", \"it\", \"ja\", \"jv\", \"ka\", \"kn\", \"ko\", \"la\", \"lij\", \"mk\", \"ml\", \"mr\", \"ms\", \"nap\", \"nl\", \"no\", \"pa\", \"pl\", \"pt\", \"ro\", \"ru\"], \"grp14\": [\"sa\", \"sl\", \"sr\", \"su\", \"sv\", \"ta\", \"tcy\", \"te\", \"th\", \"tr\", \"uk\", \"vec\", \"vi\", \"zh\", \"zh-min-nan\"]</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -19431,7 +19399,7 @@
       </c>
       <c r="B8" t="str">
         <f>LOOKUP(sites!A8,group!B:B,group!E:E)</f>
-        <v>dict "wikiversity" dict "grp15" "ar,beta,cs,de,el,en,es,fr,hi,it,ja,ko,pt,ru,sl,sv,zh"</v>
+        <v>}, \"wikiversity\": { \"grp15\": [\"ar\", \"beta\", \"cs\", \"de\", \"el\", \"en\", \"es\", \"fr\", \"hi\", \"it\", \"ja\", \"ko\", \"pt\", \"ru\", \"sl\", \"sv\", \"zh\"]</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -19440,7 +19408,7 @@
       </c>
       <c r="B9" t="str">
         <f>LOOKUP(sites!A9,group!B:B,group!E:E)</f>
-        <v>dict "wikivoyage" dict "grp16" "bn,cs,de,en,eo,es,fa,fr,he,hi,id,it,ja,nl,pt,ru,shn,tr,uk,vi,zh"</v>
+        <v>}, \"wikivoyage\": { \"grp16\": [\"bn\", \"cs\", \"de\", \"en\", \"eo\", \"es\", \"fa\", \"fr\", \"he\", \"hi\", \"id\", \"it\", \"ja\", \"nl\", \"pt\", \"ru\", \"shn\", \"tr\", \"uk\", \"vi\", \"zh\"]</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -19449,8 +19417,7 @@
       </c>
       <c r="B10" t="str">
         <f>LOOKUP(sites!A10,group!B:B,group!E:E)</f>
-        <v>dict "wiktionary" dict "grp17" "af,ar,az,bg,bn,br,bs,ca,cs,cy,da,de,el,en,eo,es,et,fa,fi,fr,gd,gl,gom,he,hi,hif,hu,hy,id,ie,is,it,ja,ka,kaa,kk,km,kn,ko,ku,lmo,lt,mg,mk,ml,mn,mnw,mr,ms"
-"grp18" "nds,nl,no,oc,pl,pt,ro,ru,sd,sg,si,simple,skr,sq,sr,sv,ta,te,th,tl,tr,uk,uz,vec,vi,wa,yue,zh"</v>
+        <v>}, \"wiktionary\": { \"grp17\": [\"af\", \"ar\", \"az\", \"bg\", \"bn\", \"br\", \"bs\", \"ca\", \"cs\", \"cy\", \"da\", \"de\", \"el\", \"en\", \"eo\", \"es\", \"et\", \"fa\", \"fi\", \"fr\", \"gd\", \"gl\", \"gom\", \"he\", \"hi\", \"hif\", \"hu\", \"hy\", \"id\", \"ie\", \"is\", \"it\", \"ja\", \"ka\", \"kaa\", \"kk\", \"km\", \"kn\", \"ko\", \"ku\", \"lmo\", \"lt\", \"mg\", \"mk\", \"ml\", \"mn\", \"mnw\", \"mr\", \"ms\"], \"grp18\": [\"nds\", \"nl\", \"no\", \"oc\", \"pl\", \"pt\", \"ro\", \"ru\", \"sd\", \"sg\", \"si\", \"simple\", \"skr\", \"sq\", \"sr\", \"sv\", \"ta\", \"te\", \"th\", \"tl\", \"tr\", \"uk\", \"uz\", \"vec\", \"vi\", \"wa\", \"yue\", \"zh\"]</v>
       </c>
     </row>
   </sheetData>
@@ -19462,7 +19429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42D875E-823E-3944-BCDF-3466B950D78C}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
